--- a/REGULAR/TOLENTINO, CAROLINA.xlsx
+++ b/REGULAR/TOLENTINO, CAROLINA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\LCR - LOCAL CIVIL REGISTRY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D944635-2B8A-4A52-BDD0-DCCD3B01319A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="323">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1001,12 +1000,15 @@
   </si>
   <si>
     <t>12/15,16,27,28,29</t>
+  </si>
+  <si>
+    <t>BDAY 4/11/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1866,7 +1868,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1909,7 +1911,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1973,7 +1975,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2033,7 +2035,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2099,7 +2101,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2162,7 +2164,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2260,7 +2262,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2319,7 +2321,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2384,7 +2386,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2427,7 +2429,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2502,7 +2504,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2688,7 +2690,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2754,7 +2756,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2812,7 +2814,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2878,7 +2880,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2934,7 +2936,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3009,7 +3011,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3052,7 +3054,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3118,7 +3120,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3174,7 +3176,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3272,7 +3274,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3335,7 +3337,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3401,25 +3403,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K459" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K460" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3431,13 +3433,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3446,14 +3448,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3757,7 +3759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3767,7 +3769,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3775,34 +3777,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K459"/>
+  <dimension ref="A2:K460"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="3540" topLeftCell="A446" activePane="bottomLeft"/>
       <selection activeCell="J8" sqref="J8"/>
-      <selection pane="bottomLeft" activeCell="B454" sqref="B454"/>
+      <selection pane="bottomLeft" activeCell="B460" sqref="B460"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3823,7 +3825,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3841,7 +3843,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3863,7 +3865,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3871,7 +3873,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3884,7 +3886,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -3901,7 +3903,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3936,7 +3938,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3945,7 +3947,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>161.74000000000009</v>
+        <v>164.24000000000009</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3955,12 +3957,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>267.25</v>
+        <v>267.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>45</v>
       </c>
@@ -3982,7 +3984,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>35977</v>
       </c>
@@ -4008,7 +4010,7 @@
         <v>35999</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>36008</v>
       </c>
@@ -4028,7 +4030,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>36039</v>
       </c>
@@ -4054,7 +4056,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>36069</v>
       </c>
@@ -4078,7 +4080,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>49</v>
@@ -4098,7 +4100,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>36100</v>
       </c>
@@ -4122,7 +4124,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>36130</v>
       </c>
@@ -4146,7 +4148,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="15" t="s">
         <v>52</v>
@@ -4166,7 +4168,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="15"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="15" t="s">
         <v>53</v>
@@ -4186,7 +4188,7 @@
       <c r="J19" s="12"/>
       <c r="K19" s="15"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="47" t="s">
         <v>55</v>
       </c>
@@ -4204,7 +4206,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="15"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>36161</v>
       </c>
@@ -4228,7 +4230,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>36192</v>
       </c>
@@ -4252,7 +4254,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>36220</v>
       </c>
@@ -4278,7 +4280,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>82</v>
@@ -4298,7 +4300,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>36251</v>
       </c>
@@ -4324,7 +4326,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>36281</v>
       </c>
@@ -4350,7 +4352,7 @@
         <v>36308</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>87</v>
@@ -4370,7 +4372,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="48"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>36312</v>
       </c>
@@ -4390,7 +4392,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>36342</v>
       </c>
@@ -4410,7 +4412,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>36373</v>
       </c>
@@ -4434,7 +4436,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>36404</v>
       </c>
@@ -4460,7 +4462,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>90</v>
@@ -4480,7 +4482,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>36434</v>
       </c>
@@ -4506,7 +4508,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>36465</v>
       </c>
@@ -4526,7 +4528,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>36495</v>
       </c>
@@ -4552,7 +4554,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>93</v>
@@ -4572,7 +4574,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>93</v>
@@ -4592,7 +4594,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="47" t="s">
         <v>56</v>
       </c>
@@ -4610,7 +4612,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>36526</v>
       </c>
@@ -4636,7 +4638,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>97</v>
@@ -4656,7 +4658,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>36557</v>
       </c>
@@ -4676,7 +4678,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>36586</v>
       </c>
@@ -4696,7 +4698,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>36617</v>
       </c>
@@ -4722,7 +4724,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>93</v>
@@ -4742,7 +4744,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>36647</v>
       </c>
@@ -4764,7 +4766,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>100</v>
@@ -4784,7 +4786,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>36678</v>
       </c>
@@ -4804,7 +4806,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>36708</v>
       </c>
@@ -4828,7 +4830,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>36739</v>
       </c>
@@ -4854,7 +4856,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>36770</v>
       </c>
@@ -4874,7 +4876,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>36800</v>
       </c>
@@ -4900,7 +4902,7 @@
         <v>36801</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>51</v>
@@ -4922,7 +4924,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>103</v>
@@ -4942,7 +4944,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>36831</v>
       </c>
@@ -4968,7 +4970,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>103</v>
@@ -4988,7 +4990,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>93</v>
@@ -5008,7 +5010,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>36861</v>
       </c>
@@ -5032,7 +5034,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>108</v>
@@ -5052,7 +5054,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="47" t="s">
         <v>57</v>
       </c>
@@ -5070,7 +5072,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>36892</v>
       </c>
@@ -5094,7 +5096,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>36923</v>
       </c>
@@ -5114,7 +5116,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>36951</v>
       </c>
@@ -5134,7 +5136,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>36982</v>
       </c>
@@ -5158,7 +5160,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>37012</v>
       </c>
@@ -5178,7 +5180,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>37043</v>
       </c>
@@ -5198,7 +5200,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>37073</v>
       </c>
@@ -5224,7 +5226,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>37104</v>
       </c>
@@ -5250,7 +5252,7 @@
         <v>37131</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>37135</v>
       </c>
@@ -5276,7 +5278,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>37165</v>
       </c>
@@ -5302,7 +5304,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>93</v>
@@ -5322,7 +5324,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>54</v>
@@ -5344,7 +5346,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>37196</v>
       </c>
@@ -5368,7 +5370,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>93</v>
@@ -5388,7 +5390,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>37226</v>
       </c>
@@ -5414,7 +5416,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="47" t="s">
         <v>58</v>
       </c>
@@ -5432,7 +5434,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>37257</v>
       </c>
@@ -5456,7 +5458,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>37288</v>
       </c>
@@ -5480,7 +5482,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>120</v>
@@ -5500,7 +5502,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>37316</v>
       </c>
@@ -5524,7 +5526,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>37347</v>
       </c>
@@ -5548,7 +5550,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>37377</v>
       </c>
@@ -5574,7 +5576,7 @@
         <v>37400</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>93</v>
@@ -5594,7 +5596,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>37408</v>
       </c>
@@ -5618,7 +5620,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>124</v>
@@ -5640,7 +5642,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>37438</v>
       </c>
@@ -5660,7 +5662,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>37469</v>
       </c>
@@ -5686,7 +5688,7 @@
         <v>37469</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>37500</v>
       </c>
@@ -5710,7 +5712,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>37530</v>
       </c>
@@ -5734,7 +5736,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>54</v>
@@ -5754,7 +5756,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>37561</v>
       </c>
@@ -5778,7 +5780,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>37591</v>
       </c>
@@ -5802,7 +5804,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="47" t="s">
         <v>59</v>
       </c>
@@ -5820,7 +5822,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>37622</v>
       </c>
@@ -5840,7 +5842,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>37653</v>
       </c>
@@ -5864,7 +5866,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>37681</v>
       </c>
@@ -5888,7 +5890,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>37712</v>
       </c>
@@ -5908,7 +5910,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>37742</v>
       </c>
@@ -5928,7 +5930,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>37773</v>
       </c>
@@ -5954,7 +5956,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>37803</v>
       </c>
@@ -5974,7 +5976,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>37834</v>
       </c>
@@ -6000,7 +6002,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>37865</v>
       </c>
@@ -6024,7 +6026,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>37895</v>
       </c>
@@ -6050,7 +6052,7 @@
         <v>37922</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>93</v>
@@ -6070,7 +6072,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>54</v>
@@ -6090,7 +6092,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>37926</v>
       </c>
@@ -6116,7 +6118,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>54</v>
@@ -6138,7 +6140,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>137</v>
@@ -6158,7 +6160,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>37956</v>
       </c>
@@ -6182,7 +6184,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>90</v>
@@ -6202,7 +6204,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="47" t="s">
         <v>60</v>
       </c>
@@ -6220,7 +6222,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>37987</v>
       </c>
@@ -6244,7 +6246,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>38018</v>
       </c>
@@ -6268,7 +6270,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>38047</v>
       </c>
@@ -6294,7 +6296,7 @@
         <v>38072</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>142</v>
@@ -6314,7 +6316,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>38078</v>
       </c>
@@ -6340,7 +6342,7 @@
         <v>38078</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>84</v>
@@ -6362,7 +6364,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>38108</v>
       </c>
@@ -6388,7 +6390,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>102</v>
@@ -6410,7 +6412,7 @@
         <v>38138</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20" t="s">
         <v>119</v>
@@ -6430,7 +6432,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>93</v>
@@ -6450,7 +6452,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>38139</v>
       </c>
@@ -6476,7 +6478,7 @@
         <v>38163</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>146</v>
@@ -6496,7 +6498,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>38169</v>
       </c>
@@ -6520,7 +6522,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>38200</v>
       </c>
@@ -6540,7 +6542,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>38231</v>
       </c>
@@ -6564,7 +6566,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>38261</v>
       </c>
@@ -6590,7 +6592,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>86</v>
@@ -6612,7 +6614,7 @@
         <v>38279</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>148</v>
@@ -6632,7 +6634,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>102</v>
@@ -6654,7 +6656,7 @@
         <v>38286</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>38292</v>
       </c>
@@ -6678,7 +6680,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
         <v>93</v>
@@ -6698,7 +6700,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>38322</v>
       </c>
@@ -6722,7 +6724,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>93</v>
@@ -6742,7 +6744,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="47" t="s">
         <v>61</v>
       </c>
@@ -6760,7 +6762,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>38353</v>
       </c>
@@ -6786,7 +6788,7 @@
         <v>38377</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>132</v>
@@ -6808,7 +6810,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>154</v>
@@ -6828,7 +6830,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>38384</v>
       </c>
@@ -6852,7 +6854,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>38412</v>
       </c>
@@ -6878,7 +6880,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>93</v>
@@ -6898,7 +6900,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>159</v>
@@ -6918,7 +6920,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>86</v>
@@ -6940,7 +6942,7 @@
         <v>38456</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>38443</v>
       </c>
@@ -6966,7 +6968,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40"/>
       <c r="B144" s="20" t="s">
         <v>161</v>
@@ -6986,7 +6988,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>38473</v>
       </c>
@@ -7010,7 +7012,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>164</v>
@@ -7030,7 +7032,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>38504</v>
       </c>
@@ -7054,7 +7056,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>38534</v>
       </c>
@@ -7076,7 +7078,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>167</v>
@@ -7096,7 +7098,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>38565</v>
       </c>
@@ -7120,7 +7122,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>38596</v>
       </c>
@@ -7146,7 +7148,7 @@
         <v>38625</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>169</v>
@@ -7166,7 +7168,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="48"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>38626</v>
       </c>
@@ -7192,7 +7194,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40"/>
       <c r="B154" s="20" t="s">
         <v>171</v>
@@ -7212,7 +7214,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>38657</v>
       </c>
@@ -7236,7 +7238,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>38687</v>
       </c>
@@ -7260,7 +7262,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>173</v>
@@ -7280,7 +7282,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="47" t="s">
         <v>62</v>
       </c>
@@ -7298,7 +7300,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>38718</v>
       </c>
@@ -7322,7 +7324,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>38749</v>
       </c>
@@ -7346,7 +7348,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>38777</v>
       </c>
@@ -7370,7 +7372,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>177</v>
@@ -7390,7 +7392,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>38808</v>
       </c>
@@ -7414,7 +7416,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>93</v>
@@ -7434,7 +7436,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>38838</v>
       </c>
@@ -7458,7 +7460,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>38869</v>
       </c>
@@ -7482,7 +7484,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>38899</v>
       </c>
@@ -7506,7 +7508,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>38930</v>
       </c>
@@ -7532,7 +7534,7 @@
         <v>38933</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>102</v>
@@ -7554,7 +7556,7 @@
         <v>38958</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>184</v>
@@ -7574,7 +7576,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>38961</v>
       </c>
@@ -7600,7 +7602,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>185</v>
@@ -7620,7 +7622,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <v>38991</v>
       </c>
@@ -7642,7 +7644,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>187</v>
@@ -7662,7 +7664,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <v>39022</v>
       </c>
@@ -7686,7 +7688,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>39052</v>
       </c>
@@ -7712,7 +7714,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>190</v>
@@ -7732,7 +7734,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="47" t="s">
         <v>63</v>
       </c>
@@ -7750,7 +7752,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>39083</v>
       </c>
@@ -7774,7 +7776,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>39114</v>
       </c>
@@ -7800,7 +7802,7 @@
         <v>39121</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>193</v>
@@ -7820,7 +7822,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>39142</v>
       </c>
@@ -7844,7 +7846,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>39173</v>
       </c>
@@ -7870,7 +7872,7 @@
         <v>39175</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>195</v>
@@ -7890,7 +7892,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>39203</v>
       </c>
@@ -7916,7 +7918,7 @@
         <v>39212</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>102</v>
@@ -7938,7 +7940,7 @@
         <v>39219</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>93</v>
@@ -7958,7 +7960,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>102</v>
@@ -7980,7 +7982,7 @@
         <v>39227</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>197</v>
@@ -8000,7 +8002,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="48"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>39234</v>
       </c>
@@ -8024,7 +8026,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>39264</v>
       </c>
@@ -8048,7 +8050,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>39295</v>
       </c>
@@ -8072,7 +8074,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>39326</v>
       </c>
@@ -8098,7 +8100,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>200</v>
@@ -8118,7 +8120,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>39356</v>
       </c>
@@ -8144,7 +8146,7 @@
         <v>39379</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>202</v>
@@ -8164,7 +8166,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>39387</v>
       </c>
@@ -8188,7 +8190,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>39417</v>
       </c>
@@ -8214,7 +8216,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>140</v>
@@ -8236,7 +8238,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40"/>
       <c r="B200" s="20" t="s">
         <v>107</v>
@@ -8256,7 +8258,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>206</v>
@@ -8276,7 +8278,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="47" t="s">
         <v>64</v>
       </c>
@@ -8294,7 +8296,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>39448</v>
       </c>
@@ -8318,7 +8320,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>39479</v>
       </c>
@@ -8342,7 +8344,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <v>39508</v>
       </c>
@@ -8364,7 +8366,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>209</v>
@@ -8384,7 +8386,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>39539</v>
       </c>
@@ -8410,7 +8412,7 @@
         <v>39563</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>210</v>
@@ -8430,7 +8432,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>39569</v>
       </c>
@@ -8454,7 +8456,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>39600</v>
       </c>
@@ -8478,7 +8480,7 @@
       <c r="J210" s="12"/>
       <c r="K210" s="15"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>39630</v>
       </c>
@@ -8502,7 +8504,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <v>39661</v>
       </c>
@@ -8528,7 +8530,7 @@
         <v>39665</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>214</v>
@@ -8548,7 +8550,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>39692</v>
       </c>
@@ -8572,7 +8574,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <v>39722</v>
       </c>
@@ -8598,7 +8600,7 @@
         <v>39745</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>216</v>
@@ -8618,7 +8620,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="48"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>39753</v>
       </c>
@@ -8644,7 +8646,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>219</v>
@@ -8664,7 +8666,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>39783</v>
       </c>
@@ -8688,7 +8690,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40"/>
       <c r="B220" s="20" t="s">
         <v>88</v>
@@ -8708,7 +8710,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="47" t="s">
         <v>65</v>
       </c>
@@ -8726,7 +8728,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <v>39814</v>
       </c>
@@ -8750,7 +8752,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <v>39845</v>
       </c>
@@ -8774,7 +8776,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>39873</v>
       </c>
@@ -8798,7 +8800,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>93</v>
@@ -8818,7 +8820,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>221</v>
@@ -8838,7 +8840,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <v>39904</v>
       </c>
@@ -8858,7 +8860,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>39934</v>
       </c>
@@ -8882,7 +8884,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>39965</v>
       </c>
@@ -8902,7 +8904,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>39995</v>
       </c>
@@ -8922,7 +8924,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>40026</v>
       </c>
@@ -8942,7 +8944,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <v>40057</v>
       </c>
@@ -8962,7 +8964,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>40087</v>
       </c>
@@ -8982,7 +8984,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <v>40118</v>
       </c>
@@ -9002,7 +9004,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <v>40148</v>
       </c>
@@ -9028,7 +9030,7 @@
         <v>40171</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>217</v>
@@ -9048,7 +9050,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="48"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="47" t="s">
         <v>66</v>
       </c>
@@ -9066,7 +9068,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <v>40179</v>
       </c>
@@ -9086,7 +9088,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <v>40210</v>
       </c>
@@ -9106,7 +9108,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <v>40238</v>
       </c>
@@ -9126,7 +9128,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <v>40269</v>
       </c>
@@ -9146,7 +9148,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <v>40299</v>
       </c>
@@ -9166,7 +9168,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>40330</v>
       </c>
@@ -9186,7 +9188,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <v>40360</v>
       </c>
@@ -9206,7 +9208,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <v>40391</v>
       </c>
@@ -9226,7 +9228,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <v>40422</v>
       </c>
@@ -9250,7 +9252,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <v>40452</v>
       </c>
@@ -9276,7 +9278,7 @@
         <v>40455</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>224</v>
@@ -9296,7 +9298,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>40483</v>
       </c>
@@ -9320,7 +9322,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <v>40513</v>
       </c>
@@ -9344,7 +9346,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="47" t="s">
         <v>67</v>
       </c>
@@ -9362,7 +9364,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <v>40544</v>
       </c>
@@ -9388,7 +9390,7 @@
         <v>40581</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>213</v>
@@ -9408,7 +9410,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>40575</v>
       </c>
@@ -9434,7 +9436,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>102</v>
@@ -9456,7 +9458,7 @@
         <v>40596</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>229</v>
@@ -9476,7 +9478,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="48"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>40603</v>
       </c>
@@ -9502,7 +9504,7 @@
         <v>40609</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>54</v>
@@ -9524,7 +9526,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>102</v>
@@ -9546,7 +9548,7 @@
         <v>40623</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>93</v>
@@ -9566,7 +9568,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>93</v>
@@ -9586,7 +9588,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>234</v>
@@ -9606,7 +9608,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <v>40634</v>
       </c>
@@ -9630,7 +9632,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <v>40664</v>
       </c>
@@ -9654,7 +9656,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <v>40695</v>
       </c>
@@ -9678,7 +9680,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <v>40725</v>
       </c>
@@ -9704,7 +9706,7 @@
         <v>40725</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>236</v>
@@ -9724,7 +9726,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <v>40756</v>
       </c>
@@ -9748,7 +9750,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <v>40787</v>
       </c>
@@ -9772,7 +9774,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <v>40817</v>
       </c>
@@ -9798,7 +9800,7 @@
         <v>40840</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>239</v>
@@ -9818,7 +9820,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="48"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <v>40848</v>
       </c>
@@ -9842,7 +9844,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>40878</v>
       </c>
@@ -9868,7 +9870,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>241</v>
@@ -9888,7 +9890,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="47" t="s">
         <v>68</v>
       </c>
@@ -9906,7 +9908,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <v>40909</v>
       </c>
@@ -9932,7 +9934,7 @@
         <v>40939</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>243</v>
@@ -9952,7 +9954,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <v>40940</v>
       </c>
@@ -9972,7 +9974,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <v>40969</v>
       </c>
@@ -9996,7 +9998,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <v>41000</v>
       </c>
@@ -10016,7 +10018,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <v>41030</v>
       </c>
@@ -10042,7 +10044,7 @@
         <v>41060</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <v>41061</v>
       </c>
@@ -10062,7 +10064,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <v>41091</v>
       </c>
@@ -10088,7 +10090,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <v>41122</v>
       </c>
@@ -10108,7 +10110,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <v>41153</v>
       </c>
@@ -10128,7 +10130,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>41183</v>
       </c>
@@ -10154,7 +10156,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>93</v>
@@ -10174,7 +10176,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <v>41214</v>
       </c>
@@ -10200,7 +10202,7 @@
         <v>41257</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <v>41244</v>
       </c>
@@ -10220,7 +10222,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="47" t="s">
         <v>69</v>
       </c>
@@ -10238,7 +10240,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <v>41275</v>
       </c>
@@ -10262,7 +10264,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>41306</v>
       </c>
@@ -10282,7 +10284,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <v>41334</v>
       </c>
@@ -10302,7 +10304,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <v>41365</v>
       </c>
@@ -10326,7 +10328,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <v>41395</v>
       </c>
@@ -10350,7 +10352,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <v>41426</v>
       </c>
@@ -10374,7 +10376,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <v>41456</v>
       </c>
@@ -10398,7 +10400,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <v>41487</v>
       </c>
@@ -10422,7 +10424,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <v>41518</v>
       </c>
@@ -10446,7 +10448,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <v>41548</v>
       </c>
@@ -10474,7 +10476,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>254</v>
@@ -10494,7 +10496,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>41579</v>
       </c>
@@ -10518,7 +10520,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>41609</v>
       </c>
@@ -10542,7 +10544,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>256</v>
@@ -10562,7 +10564,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="47" t="s">
         <v>70</v>
       </c>
@@ -10580,7 +10582,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <v>41640</v>
       </c>
@@ -10604,7 +10606,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>41671</v>
       </c>
@@ -10628,7 +10630,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <v>41699</v>
       </c>
@@ -10652,7 +10654,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>41730</v>
       </c>
@@ -10676,7 +10678,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <v>41760</v>
       </c>
@@ -10700,7 +10702,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>41791</v>
       </c>
@@ -10724,7 +10726,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <v>41821</v>
       </c>
@@ -10750,7 +10752,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>265</v>
@@ -10770,7 +10772,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <v>41852</v>
       </c>
@@ -10794,7 +10796,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <v>41883</v>
       </c>
@@ -10818,7 +10820,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <v>41913</v>
       </c>
@@ -10842,7 +10844,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>93</v>
@@ -10862,7 +10864,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40"/>
       <c r="B318" s="20" t="s">
         <v>268</v>
@@ -10882,7 +10884,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <v>41944</v>
       </c>
@@ -10908,7 +10910,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>272</v>
@@ -10928,7 +10930,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <v>41974</v>
       </c>
@@ -10952,7 +10954,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40"/>
       <c r="B322" s="20" t="s">
         <v>273</v>
@@ -10972,7 +10974,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="47" t="s">
         <v>71</v>
       </c>
@@ -10990,7 +10992,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <v>42005</v>
       </c>
@@ -11014,7 +11016,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <v>42036</v>
       </c>
@@ -11038,7 +11040,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <v>42064</v>
       </c>
@@ -11062,7 +11064,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>54</v>
@@ -11084,7 +11086,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>102</v>
@@ -11106,7 +11108,7 @@
         <v>42074</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>276</v>
@@ -11126,7 +11128,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <v>42095</v>
       </c>
@@ -11150,7 +11152,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>280</v>
@@ -11170,7 +11172,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <v>42125</v>
       </c>
@@ -11194,7 +11196,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <v>42156</v>
       </c>
@@ -11218,7 +11220,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>42186</v>
       </c>
@@ -11242,7 +11244,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>42217</v>
       </c>
@@ -11266,7 +11268,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <v>42248</v>
       </c>
@@ -11290,7 +11292,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>42278</v>
       </c>
@@ -11316,7 +11318,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>93</v>
@@ -11336,7 +11338,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>288</v>
@@ -11356,7 +11358,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>42309</v>
       </c>
@@ -11380,7 +11382,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <v>42339</v>
       </c>
@@ -11404,7 +11406,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>290</v>
@@ -11424,7 +11426,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="47" t="s">
         <v>72</v>
       </c>
@@ -11442,7 +11444,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <v>42370</v>
       </c>
@@ -11466,7 +11468,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <v>42401</v>
       </c>
@@ -11490,7 +11492,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <v>42430</v>
       </c>
@@ -11514,7 +11516,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>42461</v>
       </c>
@@ -11540,7 +11542,7 @@
         <v>42487</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>93</v>
@@ -11560,7 +11562,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>293</v>
@@ -11580,7 +11582,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="48"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <v>42491</v>
       </c>
@@ -11604,7 +11606,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>42522</v>
       </c>
@@ -11630,7 +11632,7 @@
         <v>42565</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>295</v>
@@ -11650,7 +11652,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>42552</v>
       </c>
@@ -11674,7 +11676,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>42583</v>
       </c>
@@ -11698,7 +11700,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>42614</v>
       </c>
@@ -11720,7 +11722,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>297</v>
@@ -11740,7 +11742,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <v>42644</v>
       </c>
@@ -11766,7 +11768,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>298</v>
@@ -11786,7 +11788,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <v>42675</v>
       </c>
@@ -11810,7 +11812,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>42705</v>
       </c>
@@ -11836,7 +11838,7 @@
         <v>42726</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>156</v>
@@ -11856,7 +11858,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="48"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>296</v>
@@ -11876,7 +11878,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="48"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="47" t="s">
         <v>73</v>
       </c>
@@ -11894,7 +11896,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <v>42736</v>
       </c>
@@ -11918,7 +11920,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <v>42767</v>
       </c>
@@ -11942,7 +11944,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>42795</v>
       </c>
@@ -11966,7 +11968,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <v>42826</v>
       </c>
@@ -11988,7 +11990,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>302</v>
@@ -12008,7 +12010,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <v>42856</v>
       </c>
@@ -12032,7 +12034,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <v>42887</v>
       </c>
@@ -12052,7 +12054,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <v>42917</v>
       </c>
@@ -12078,7 +12080,7 @@
         <v>42936</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>108</v>
@@ -12098,7 +12100,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="48"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <v>42948</v>
       </c>
@@ -12122,7 +12124,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <v>42979</v>
       </c>
@@ -12146,7 +12148,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>43009</v>
       </c>
@@ -12172,7 +12174,7 @@
         <v>43032</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>43040</v>
       </c>
@@ -12198,7 +12200,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <v>43070</v>
       </c>
@@ -12222,7 +12224,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="47" t="s">
         <v>74</v>
       </c>
@@ -12240,7 +12242,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>43101</v>
       </c>
@@ -12260,7 +12262,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>43132</v>
       </c>
@@ -12286,7 +12288,7 @@
         <v>42793</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>102</v>
@@ -12308,7 +12310,7 @@
         <v>42799</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>43160</v>
       </c>
@@ -12328,7 +12330,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>43191</v>
       </c>
@@ -12348,7 +12350,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <v>43221</v>
       </c>
@@ -12368,7 +12370,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <v>43252</v>
       </c>
@@ -12388,7 +12390,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <v>43282</v>
       </c>
@@ -12408,7 +12410,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <v>43313</v>
       </c>
@@ -12434,7 +12436,7 @@
         <v>43313</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <v>43344</v>
       </c>
@@ -12454,7 +12456,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <v>43374</v>
       </c>
@@ -12480,7 +12482,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>93</v>
@@ -12500,7 +12502,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <v>43405</v>
       </c>
@@ -12526,7 +12528,7 @@
         <v>43420</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <v>43435</v>
       </c>
@@ -12550,7 +12552,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="47" t="s">
         <v>75</v>
       </c>
@@ -12568,7 +12570,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <v>43466</v>
       </c>
@@ -12588,7 +12590,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <v>43497</v>
       </c>
@@ -12612,7 +12614,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40"/>
       <c r="B396" s="20" t="s">
         <v>227</v>
@@ -12634,7 +12636,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <v>43525</v>
       </c>
@@ -12654,7 +12656,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <v>43556</v>
       </c>
@@ -12678,7 +12680,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>102</v>
@@ -12700,7 +12702,7 @@
         <v>43570</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <v>43586</v>
       </c>
@@ -12720,7 +12722,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <v>43617</v>
       </c>
@@ -12744,7 +12746,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <v>43647</v>
       </c>
@@ -12764,7 +12766,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <v>43678</v>
       </c>
@@ -12784,7 +12786,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <v>43709</v>
       </c>
@@ -12804,7 +12806,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <v>43739</v>
       </c>
@@ -12830,7 +12832,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <v>43770</v>
       </c>
@@ -12856,7 +12858,7 @@
         <v>43791</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <v>43800</v>
       </c>
@@ -12882,7 +12884,7 @@
         <v>43822</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="47" t="s">
         <v>76</v>
       </c>
@@ -12900,7 +12902,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <v>43831</v>
       </c>
@@ -12924,7 +12926,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <v>43862</v>
       </c>
@@ -12950,7 +12952,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <v>43891</v>
       </c>
@@ -12970,7 +12972,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <v>43922</v>
       </c>
@@ -12990,7 +12992,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <v>43952</v>
       </c>
@@ -13010,7 +13012,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <v>43983</v>
       </c>
@@ -13030,7 +13032,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <v>44013</v>
       </c>
@@ -13050,7 +13052,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <v>44044</v>
       </c>
@@ -13076,7 +13078,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
         <v>54</v>
@@ -13098,7 +13100,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <v>44075</v>
       </c>
@@ -13118,7 +13120,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <v>44105</v>
       </c>
@@ -13138,7 +13140,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <v>44136</v>
       </c>
@@ -13158,7 +13160,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <v>44166</v>
       </c>
@@ -13184,7 +13186,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="47" t="s">
         <v>77</v>
       </c>
@@ -13202,7 +13204,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <v>44197</v>
       </c>
@@ -13222,7 +13224,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <v>44228</v>
       </c>
@@ -13242,7 +13244,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <v>44256</v>
       </c>
@@ -13262,7 +13264,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <v>44287</v>
       </c>
@@ -13282,7 +13284,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <v>44317</v>
       </c>
@@ -13302,7 +13304,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <v>44348</v>
       </c>
@@ -13322,7 +13324,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <v>44378</v>
       </c>
@@ -13342,7 +13344,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <v>44409</v>
       </c>
@@ -13362,7 +13364,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <v>44440</v>
       </c>
@@ -13382,7 +13384,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <v>44470</v>
       </c>
@@ -13402,7 +13404,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <v>44501</v>
       </c>
@@ -13422,7 +13424,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>44531</v>
       </c>
@@ -13448,7 +13450,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="47" t="s">
         <v>78</v>
       </c>
@@ -13466,7 +13468,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <v>44562</v>
       </c>
@@ -13486,7 +13488,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <v>44593</v>
       </c>
@@ -13506,7 +13508,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <v>44621</v>
       </c>
@@ -13526,7 +13528,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <v>44652</v>
       </c>
@@ -13552,7 +13554,7 @@
         <v>44659</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>86</v>
@@ -13574,7 +13576,7 @@
         <v>44678</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <v>44682</v>
       </c>
@@ -13594,7 +13596,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <v>44713</v>
       </c>
@@ -13614,7 +13616,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <v>44743</v>
       </c>
@@ -13640,7 +13642,7 @@
         <v>44771</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <v>44774</v>
       </c>
@@ -13660,7 +13662,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <v>44805</v>
       </c>
@@ -13680,7 +13682,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <v>44835</v>
       </c>
@@ -13706,7 +13708,7 @@
         <v>44858</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>84</v>
@@ -13728,7 +13730,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>102</v>
@@ -13750,7 +13752,7 @@
         <v>44858</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40"/>
       <c r="B449" s="20" t="s">
         <v>84</v>
@@ -13772,7 +13774,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <v>44866</v>
       </c>
@@ -13798,7 +13800,7 @@
         <v>44867</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40"/>
       <c r="B451" s="20" t="s">
         <v>102</v>
@@ -13820,7 +13822,7 @@
         <v>44882</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <v>44896</v>
       </c>
@@ -13846,7 +13848,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40"/>
       <c r="B453" s="20" t="s">
         <v>102</v>
@@ -13866,7 +13868,7 @@
         <v>37597</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="47" t="s">
         <v>318</v>
       </c>
@@ -13884,7 +13886,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <v>44927</v>
       </c>
@@ -13904,47 +13906,57 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
         <v>44958</v>
       </c>
       <c r="B456" s="20"/>
-      <c r="C456" s="13"/>
+      <c r="C456" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D456" s="39"/>
       <c r="E456" s="9"/>
       <c r="F456" s="20"/>
-      <c r="G456" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G456" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H456" s="39"/>
       <c r="I456" s="9"/>
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <v>44986</v>
       </c>
-      <c r="B457" s="20"/>
-      <c r="C457" s="13"/>
+      <c r="B457" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C457" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D457" s="39"/>
       <c r="E457" s="9"/>
       <c r="F457" s="20"/>
-      <c r="G457" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H457" s="39"/>
+      <c r="G457" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H457" s="39">
+        <v>1</v>
+      </c>
       <c r="I457" s="9"/>
       <c r="J457" s="11"/>
-      <c r="K457" s="20"/>
-    </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A458" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B458" s="20"/>
+      <c r="K457" s="48">
+        <v>45012</v>
+      </c>
+    </row>
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A458" s="40"/>
+      <c r="B458" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="C458" s="13"/>
       <c r="D458" s="39"/>
       <c r="E458" s="9"/>
@@ -13956,25 +13968,51 @@
       <c r="H458" s="39"/>
       <c r="I458" s="9"/>
       <c r="J458" s="11"/>
-      <c r="K458" s="20"/>
-    </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K458" s="48" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B459" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C459" s="13"/>
+      <c r="D459" s="39"/>
+      <c r="E459" s="9"/>
+      <c r="F459" s="20"/>
+      <c r="G459" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H459" s="39">
+        <v>1</v>
+      </c>
+      <c r="I459" s="9"/>
+      <c r="J459" s="11"/>
+      <c r="K459" s="48">
+        <v>45019</v>
+      </c>
+    </row>
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A460" s="40">
         <v>45047</v>
       </c>
-      <c r="B459" s="15"/>
-      <c r="C459" s="41"/>
-      <c r="D459" s="42"/>
-      <c r="E459" s="9"/>
-      <c r="F459" s="15"/>
-      <c r="G459" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H459" s="42"/>
-      <c r="I459" s="9"/>
-      <c r="J459" s="12"/>
-      <c r="K459" s="15"/>
+      <c r="B460" s="15"/>
+      <c r="C460" s="41"/>
+      <c r="D460" s="42"/>
+      <c r="E460" s="9"/>
+      <c r="F460" s="15"/>
+      <c r="G460" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H460" s="42"/>
+      <c r="I460" s="9"/>
+      <c r="J460" s="12"/>
+      <c r="K460" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -13991,10 +14029,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14017,7 +14055,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -14025,21 +14063,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -14052,7 +14090,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -14081,7 +14119,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>34</v>
       </c>
@@ -14107,17 +14145,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -14138,7 +14176,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -14165,7 +14203,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -14191,7 +14229,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -14217,7 +14255,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -14243,7 +14281,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -14269,7 +14307,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -14295,7 +14333,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -14321,7 +14359,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -14347,7 +14385,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -14367,7 +14405,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -14387,7 +14425,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -14407,7 +14445,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -14428,7 +14466,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -14449,7 +14487,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -14470,7 +14508,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -14491,7 +14529,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -14512,7 +14550,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -14533,7 +14571,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -14554,7 +14592,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -14575,7 +14613,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -14596,7 +14634,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -14617,7 +14655,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -14638,7 +14676,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -14659,7 +14697,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -14680,7 +14718,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -14701,7 +14739,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -14722,7 +14760,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -14743,7 +14781,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -14764,7 +14802,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -14785,7 +14823,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -14806,7 +14844,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -14827,7 +14865,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -14836,7 +14874,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -14845,7 +14883,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -14854,7 +14892,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -14863,7 +14901,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -14872,7 +14910,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -14881,7 +14919,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -14890,7 +14928,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -14899,7 +14937,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -14908,7 +14946,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -14917,7 +14955,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -14926,7 +14964,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -14935,7 +14973,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -14944,7 +14982,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -14953,7 +14991,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -14962,7 +15000,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -14971,7 +15009,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -14980,7 +15018,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -14989,7 +15027,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -14998,7 +15036,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -15007,7 +15045,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -15016,7 +15054,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -15025,7 +15063,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -15034,7 +15072,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -15043,7 +15081,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -15052,7 +15090,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -15061,7 +15099,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -15070,7 +15108,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -15079,7 +15117,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -15088,7 +15126,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/TOLENTINO, CAROLINA.xlsx
+++ b/REGULAR/TOLENTINO, CAROLINA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="323">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1239,7 +1239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1419,6 +1419,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1868,7 +1871,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1911,7 +1914,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1975,7 +1978,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2035,7 +2038,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2101,7 +2104,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2164,7 +2167,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2262,7 +2265,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2321,7 +2324,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2386,7 +2389,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2429,7 +2432,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2504,7 +2507,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2690,7 +2693,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2756,7 +2759,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2814,7 +2817,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2880,7 +2883,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2936,7 +2939,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3011,7 +3014,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3054,7 +3057,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3120,7 +3123,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3176,7 +3179,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3274,7 +3277,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3337,7 +3340,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3403,7 +3406,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K460" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K461" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3781,12 +3784,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K460"/>
+  <dimension ref="A2:K461"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="3540" topLeftCell="A446" activePane="bottomLeft"/>
       <selection activeCell="J8" sqref="J8"/>
-      <selection pane="bottomLeft" activeCell="B460" sqref="B460"/>
+      <selection pane="bottomLeft" activeCell="K461" sqref="K461"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3957,7 +3960,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>267.75</v>
+        <v>266.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -13997,10 +14000,10 @@
       </c>
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A460" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B460" s="15"/>
+      <c r="A460" s="40"/>
+      <c r="B460" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="C460" s="41"/>
       <c r="D460" s="42"/>
       <c r="E460" s="9"/>
@@ -14009,10 +14012,32 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H460" s="42"/>
+      <c r="H460" s="42">
+        <v>1</v>
+      </c>
       <c r="I460" s="9"/>
       <c r="J460" s="12"/>
-      <c r="K460" s="15"/>
+      <c r="K460" s="62">
+        <v>45033</v>
+      </c>
+    </row>
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A461" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B461" s="15"/>
+      <c r="C461" s="41"/>
+      <c r="D461" s="42"/>
+      <c r="E461" s="9"/>
+      <c r="F461" s="15"/>
+      <c r="G461" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H461" s="42"/>
+      <c r="I461" s="9"/>
+      <c r="J461" s="12"/>
+      <c r="K461" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/TOLENTINO, CAROLINA.xlsx
+++ b/REGULAR/TOLENTINO, CAROLINA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="323">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1239,7 +1239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1384,6 +1384,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1420,7 +1423,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1871,7 +1877,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1914,7 +1920,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1978,7 +1984,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2038,7 +2044,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2104,7 +2110,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2167,7 +2173,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2265,7 +2271,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2324,7 +2330,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2389,7 +2395,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2432,7 +2438,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2507,7 +2513,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2693,7 +2699,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2759,7 +2765,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2817,7 +2823,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2883,7 +2889,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2939,7 +2945,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3014,7 +3020,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3057,7 +3063,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3123,7 +3129,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3179,7 +3185,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3277,7 +3283,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3340,7 +3346,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3406,7 +3412,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K461" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K468" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3784,12 +3790,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K461"/>
+  <dimension ref="A2:K468"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="3540" topLeftCell="A446" activePane="bottomLeft"/>
       <selection activeCell="J8" sqref="J8"/>
-      <selection pane="bottomLeft" activeCell="K461" sqref="K461"/>
+      <selection pane="bottomLeft" activeCell="B462" sqref="B462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3811,62 +3817,62 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="59"/>
-      <c r="G3" s="56"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3892,18 +3898,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -14017,7 +14023,7 @@
       </c>
       <c r="I460" s="9"/>
       <c r="J460" s="12"/>
-      <c r="K460" s="62">
+      <c r="K460" s="50">
         <v>45033</v>
       </c>
     </row>
@@ -14025,7 +14031,9 @@
       <c r="A461" s="40">
         <v>45047</v>
       </c>
-      <c r="B461" s="15"/>
+      <c r="B461" s="15" t="s">
+        <v>93</v>
+      </c>
       <c r="C461" s="41"/>
       <c r="D461" s="42"/>
       <c r="E461" s="9"/>
@@ -14037,7 +14045,121 @@
       <c r="H461" s="42"/>
       <c r="I461" s="9"/>
       <c r="J461" s="12"/>
-      <c r="K461" s="15"/>
+      <c r="K461" s="50">
+        <v>45061</v>
+      </c>
+    </row>
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A462" s="40"/>
+      <c r="B462" s="20"/>
+      <c r="C462" s="13"/>
+      <c r="D462" s="39"/>
+      <c r="E462" s="9"/>
+      <c r="F462" s="20"/>
+      <c r="G462" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H462" s="39"/>
+      <c r="I462" s="9"/>
+      <c r="J462" s="11"/>
+      <c r="K462" s="20"/>
+    </row>
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A463" s="40"/>
+      <c r="B463" s="20"/>
+      <c r="C463" s="13"/>
+      <c r="D463" s="39"/>
+      <c r="E463" s="9"/>
+      <c r="F463" s="20"/>
+      <c r="G463" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H463" s="39"/>
+      <c r="I463" s="9"/>
+      <c r="J463" s="11"/>
+      <c r="K463" s="20"/>
+    </row>
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A464" s="40"/>
+      <c r="B464" s="20"/>
+      <c r="C464" s="13"/>
+      <c r="D464" s="39"/>
+      <c r="E464" s="9"/>
+      <c r="F464" s="20"/>
+      <c r="G464" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H464" s="39"/>
+      <c r="I464" s="9"/>
+      <c r="J464" s="11"/>
+      <c r="K464" s="20"/>
+    </row>
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A465" s="40"/>
+      <c r="B465" s="20"/>
+      <c r="C465" s="13"/>
+      <c r="D465" s="39"/>
+      <c r="E465" s="9"/>
+      <c r="F465" s="20"/>
+      <c r="G465" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H465" s="39"/>
+      <c r="I465" s="9"/>
+      <c r="J465" s="11"/>
+      <c r="K465" s="20"/>
+    </row>
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A466" s="40"/>
+      <c r="B466" s="20"/>
+      <c r="C466" s="13"/>
+      <c r="D466" s="39"/>
+      <c r="E466" s="9"/>
+      <c r="F466" s="20"/>
+      <c r="G466" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H466" s="39"/>
+      <c r="I466" s="9"/>
+      <c r="J466" s="11"/>
+      <c r="K466" s="20"/>
+    </row>
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A467" s="40"/>
+      <c r="B467" s="20"/>
+      <c r="C467" s="13"/>
+      <c r="D467" s="39"/>
+      <c r="E467" s="9"/>
+      <c r="F467" s="20"/>
+      <c r="G467" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H467" s="39"/>
+      <c r="I467" s="9"/>
+      <c r="J467" s="11"/>
+      <c r="K467" s="20"/>
+    </row>
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A468" s="63"/>
+      <c r="B468" s="15"/>
+      <c r="C468" s="41"/>
+      <c r="D468" s="42"/>
+      <c r="E468" s="64"/>
+      <c r="F468" s="15"/>
+      <c r="G468" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H468" s="42"/>
+      <c r="I468" s="64"/>
+      <c r="J468" s="12"/>
+      <c r="K468" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -14103,17 +14225,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="J1" s="61" t="s">
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="J1" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -14194,12 +14316,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="43"/>
-      <c r="I6" s="61" t="s">
+      <c r="I6" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">

--- a/REGULAR/TOLENTINO, CAROLINA.xlsx
+++ b/REGULAR/TOLENTINO, CAROLINA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="323">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1387,6 +1387,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1422,12 +1428,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3795,7 +3795,7 @@
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="3540" topLeftCell="A446" activePane="bottomLeft"/>
       <selection activeCell="J8" sqref="J8"/>
-      <selection pane="bottomLeft" activeCell="B462" sqref="B462"/>
+      <selection pane="bottomLeft" activeCell="K464" sqref="K464"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3817,62 +3817,62 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="52"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="57"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="59"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="57"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="60"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3898,18 +3898,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3956,7 +3956,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>164.24000000000009</v>
+        <v>166.74000000000009</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3966,7 +3966,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>266.75</v>
+        <v>267.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -13988,13 +13988,15 @@
       <c r="B459" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="C459" s="13"/>
+      <c r="C459" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D459" s="39"/>
       <c r="E459" s="9"/>
       <c r="F459" s="20"/>
-      <c r="G459" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G459" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H459" s="39">
         <v>1</v>
@@ -14034,13 +14036,15 @@
       <c r="B461" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C461" s="41"/>
+      <c r="C461" s="41">
+        <v>1.25</v>
+      </c>
       <c r="D461" s="42"/>
       <c r="E461" s="9"/>
       <c r="F461" s="15"/>
-      <c r="G461" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G461" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H461" s="42"/>
       <c r="I461" s="9"/>
@@ -14051,7 +14055,9 @@
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40"/>
-      <c r="B462" s="20"/>
+      <c r="B462" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="C462" s="13"/>
       <c r="D462" s="39"/>
       <c r="E462" s="9"/>
@@ -14060,14 +14066,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H462" s="39"/>
+      <c r="H462" s="39">
+        <v>1</v>
+      </c>
       <c r="I462" s="9"/>
       <c r="J462" s="11"/>
-      <c r="K462" s="20"/>
+      <c r="K462" s="48">
+        <v>45064</v>
+      </c>
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40"/>
-      <c r="B463" s="20"/>
+      <c r="B463" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="C463" s="13"/>
       <c r="D463" s="39"/>
       <c r="E463" s="9"/>
@@ -14076,10 +14088,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H463" s="39"/>
+      <c r="H463" s="39">
+        <v>1</v>
+      </c>
       <c r="I463" s="9"/>
       <c r="J463" s="11"/>
-      <c r="K463" s="20"/>
+      <c r="K463" s="48">
+        <v>45075</v>
+      </c>
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40"/>
@@ -14146,18 +14162,18 @@
       <c r="K467" s="20"/>
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A468" s="63"/>
+      <c r="A468" s="51"/>
       <c r="B468" s="15"/>
       <c r="C468" s="41"/>
       <c r="D468" s="42"/>
-      <c r="E468" s="64"/>
+      <c r="E468" s="52"/>
       <c r="F468" s="15"/>
       <c r="G468" s="41" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H468" s="42"/>
-      <c r="I468" s="64"/>
+      <c r="I468" s="52"/>
       <c r="J468" s="12"/>
       <c r="K468" s="15"/>
     </row>
@@ -14225,17 +14241,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="J1" s="62" t="s">
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="J1" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -14316,12 +14332,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="43"/>
-      <c r="I6" s="62" t="s">
+      <c r="I6" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">

--- a/REGULAR/TOLENTINO, CAROLINA.xlsx
+++ b/REGULAR/TOLENTINO, CAROLINA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2771D89A-BB82-4440-B99D-19720AC2D33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="323">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1008,7 +1009,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1239,7 +1240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1385,9 +1386,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1877,7 +1875,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1920,7 +1918,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1984,7 +1982,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2044,7 +2042,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2110,7 +2108,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2173,7 +2171,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2271,7 +2269,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2330,7 +2328,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2395,7 +2393,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2438,7 +2436,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2513,7 +2511,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2699,7 +2697,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2765,7 +2763,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2823,7 +2821,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2889,7 +2887,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2945,7 +2943,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3020,7 +3018,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3063,7 +3061,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3129,7 +3127,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3185,7 +3183,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3283,7 +3281,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3346,7 +3344,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3395,7 +3393,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3412,25 +3410,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K468" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K537" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3442,13 +3440,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3457,14 +3455,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3768,7 +3766,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3778,7 +3776,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3786,95 +3784,95 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K468"/>
+  <dimension ref="A2:K537"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="3540" topLeftCell="A446" activePane="bottomLeft"/>
+      <pane ySplit="3540" topLeftCell="A461" activePane="bottomLeft"/>
       <selection activeCell="J8" sqref="J8"/>
-      <selection pane="bottomLeft" activeCell="K464" sqref="K464"/>
+      <selection pane="bottomLeft" activeCell="B465" sqref="B465"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="54"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="62"/>
-      <c r="G3" s="59"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="58"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="54"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="59"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="60"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="58"/>
+      <c r="K4" s="59"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3882,7 +3880,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3895,24 +3893,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3947,7 +3945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3956,7 +3954,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>166.74000000000009</v>
+        <v>167.99000000000009</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3966,12 +3964,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>267.25</v>
+        <v>267.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>45</v>
       </c>
@@ -3993,7 +3991,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>35977</v>
       </c>
@@ -4019,7 +4017,7 @@
         <v>35999</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>36008</v>
       </c>
@@ -4039,7 +4037,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>36039</v>
       </c>
@@ -4065,7 +4063,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>36069</v>
       </c>
@@ -4089,7 +4087,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>49</v>
@@ -4109,7 +4107,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>36100</v>
       </c>
@@ -4133,7 +4131,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>36130</v>
       </c>
@@ -4157,7 +4155,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" s="15" t="s">
         <v>52</v>
@@ -4177,7 +4175,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="15"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="15" t="s">
         <v>53</v>
@@ -4197,7 +4195,7 @@
       <c r="J19" s="12"/>
       <c r="K19" s="15"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="47" t="s">
         <v>55</v>
       </c>
@@ -4215,7 +4213,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="15"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>36161</v>
       </c>
@@ -4239,7 +4237,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>36192</v>
       </c>
@@ -4263,7 +4261,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>36220</v>
       </c>
@@ -4289,7 +4287,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>82</v>
@@ -4309,7 +4307,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>36251</v>
       </c>
@@ -4335,7 +4333,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>36281</v>
       </c>
@@ -4361,7 +4359,7 @@
         <v>36308</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>87</v>
@@ -4381,7 +4379,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="48"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>36312</v>
       </c>
@@ -4401,7 +4399,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>36342</v>
       </c>
@@ -4421,7 +4419,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>36373</v>
       </c>
@@ -4445,7 +4443,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>36404</v>
       </c>
@@ -4471,7 +4469,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>90</v>
@@ -4491,7 +4489,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>36434</v>
       </c>
@@ -4517,7 +4515,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>36465</v>
       </c>
@@ -4537,7 +4535,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>36495</v>
       </c>
@@ -4563,7 +4561,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>93</v>
@@ -4583,7 +4581,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>93</v>
@@ -4603,7 +4601,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="47" t="s">
         <v>56</v>
       </c>
@@ -4621,7 +4619,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>36526</v>
       </c>
@@ -4647,7 +4645,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>97</v>
@@ -4667,7 +4665,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>36557</v>
       </c>
@@ -4687,7 +4685,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>36586</v>
       </c>
@@ -4707,7 +4705,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>36617</v>
       </c>
@@ -4733,7 +4731,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>93</v>
@@ -4753,7 +4751,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>36647</v>
       </c>
@@ -4775,7 +4773,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>100</v>
@@ -4795,7 +4793,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>36678</v>
       </c>
@@ -4815,7 +4813,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>36708</v>
       </c>
@@ -4839,7 +4837,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>36739</v>
       </c>
@@ -4865,7 +4863,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>36770</v>
       </c>
@@ -4885,7 +4883,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>36800</v>
       </c>
@@ -4911,7 +4909,7 @@
         <v>36801</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>51</v>
@@ -4933,7 +4931,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>103</v>
@@ -4953,7 +4951,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>36831</v>
       </c>
@@ -4979,7 +4977,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>103</v>
@@ -4999,7 +4997,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>93</v>
@@ -5019,7 +5017,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>36861</v>
       </c>
@@ -5043,7 +5041,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>108</v>
@@ -5063,7 +5061,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="47" t="s">
         <v>57</v>
       </c>
@@ -5081,7 +5079,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>36892</v>
       </c>
@@ -5105,7 +5103,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>36923</v>
       </c>
@@ -5125,7 +5123,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>36951</v>
       </c>
@@ -5145,7 +5143,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>36982</v>
       </c>
@@ -5169,7 +5167,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>37012</v>
       </c>
@@ -5189,7 +5187,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>37043</v>
       </c>
@@ -5209,7 +5207,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>37073</v>
       </c>
@@ -5235,7 +5233,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>37104</v>
       </c>
@@ -5261,7 +5259,7 @@
         <v>37131</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>37135</v>
       </c>
@@ -5287,7 +5285,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>37165</v>
       </c>
@@ -5313,7 +5311,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>93</v>
@@ -5333,7 +5331,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>54</v>
@@ -5355,7 +5353,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>37196</v>
       </c>
@@ -5379,7 +5377,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>93</v>
@@ -5399,7 +5397,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>37226</v>
       </c>
@@ -5425,7 +5423,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="47" t="s">
         <v>58</v>
       </c>
@@ -5443,7 +5441,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>37257</v>
       </c>
@@ -5467,7 +5465,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>37288</v>
       </c>
@@ -5491,7 +5489,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>120</v>
@@ -5511,7 +5509,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>37316</v>
       </c>
@@ -5535,7 +5533,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>37347</v>
       </c>
@@ -5559,7 +5557,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>37377</v>
       </c>
@@ -5585,7 +5583,7 @@
         <v>37400</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>93</v>
@@ -5605,7 +5603,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>37408</v>
       </c>
@@ -5629,7 +5627,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>124</v>
@@ -5651,7 +5649,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>37438</v>
       </c>
@@ -5671,7 +5669,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>37469</v>
       </c>
@@ -5697,7 +5695,7 @@
         <v>37469</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>37500</v>
       </c>
@@ -5721,7 +5719,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>37530</v>
       </c>
@@ -5745,7 +5743,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>54</v>
@@ -5765,7 +5763,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>37561</v>
       </c>
@@ -5789,7 +5787,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>37591</v>
       </c>
@@ -5813,7 +5811,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="47" t="s">
         <v>59</v>
       </c>
@@ -5831,7 +5829,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>37622</v>
       </c>
@@ -5851,7 +5849,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>37653</v>
       </c>
@@ -5875,7 +5873,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>37681</v>
       </c>
@@ -5899,7 +5897,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>37712</v>
       </c>
@@ -5919,7 +5917,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>37742</v>
       </c>
@@ -5939,7 +5937,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>37773</v>
       </c>
@@ -5965,7 +5963,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>37803</v>
       </c>
@@ -5985,7 +5983,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>37834</v>
       </c>
@@ -6011,7 +6009,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>37865</v>
       </c>
@@ -6035,7 +6033,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>37895</v>
       </c>
@@ -6061,7 +6059,7 @@
         <v>37922</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>93</v>
@@ -6081,7 +6079,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>54</v>
@@ -6101,7 +6099,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>37926</v>
       </c>
@@ -6127,7 +6125,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>54</v>
@@ -6149,7 +6147,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>137</v>
@@ -6169,7 +6167,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>37956</v>
       </c>
@@ -6193,7 +6191,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>90</v>
@@ -6213,7 +6211,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="47" t="s">
         <v>60</v>
       </c>
@@ -6231,7 +6229,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>37987</v>
       </c>
@@ -6255,7 +6253,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>38018</v>
       </c>
@@ -6279,7 +6277,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <v>38047</v>
       </c>
@@ -6305,7 +6303,7 @@
         <v>38072</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>142</v>
@@ -6325,7 +6323,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>38078</v>
       </c>
@@ -6351,7 +6349,7 @@
         <v>38078</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>84</v>
@@ -6373,7 +6371,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>38108</v>
       </c>
@@ -6399,7 +6397,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>102</v>
@@ -6421,7 +6419,7 @@
         <v>38138</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20" t="s">
         <v>119</v>
@@ -6441,7 +6439,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>93</v>
@@ -6461,7 +6459,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <v>38139</v>
       </c>
@@ -6487,7 +6485,7 @@
         <v>38163</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>146</v>
@@ -6507,7 +6505,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <v>38169</v>
       </c>
@@ -6531,7 +6529,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <v>38200</v>
       </c>
@@ -6551,7 +6549,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>38231</v>
       </c>
@@ -6575,7 +6573,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <v>38261</v>
       </c>
@@ -6601,7 +6599,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>86</v>
@@ -6623,7 +6621,7 @@
         <v>38279</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>148</v>
@@ -6643,7 +6641,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>102</v>
@@ -6665,7 +6663,7 @@
         <v>38286</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <v>38292</v>
       </c>
@@ -6689,7 +6687,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
         <v>93</v>
@@ -6709,7 +6707,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <v>38322</v>
       </c>
@@ -6733,7 +6731,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>93</v>
@@ -6753,7 +6751,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="47" t="s">
         <v>61</v>
       </c>
@@ -6771,7 +6769,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <v>38353</v>
       </c>
@@ -6797,7 +6795,7 @@
         <v>38377</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>132</v>
@@ -6819,7 +6817,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>154</v>
@@ -6839,7 +6837,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <v>38384</v>
       </c>
@@ -6863,7 +6861,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <v>38412</v>
       </c>
@@ -6889,7 +6887,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>93</v>
@@ -6909,7 +6907,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>159</v>
@@ -6929,7 +6927,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>86</v>
@@ -6951,7 +6949,7 @@
         <v>38456</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <v>38443</v>
       </c>
@@ -6977,7 +6975,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40"/>
       <c r="B144" s="20" t="s">
         <v>161</v>
@@ -6997,7 +6995,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <v>38473</v>
       </c>
@@ -7021,7 +7019,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>164</v>
@@ -7041,7 +7039,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <v>38504</v>
       </c>
@@ -7065,7 +7063,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <v>38534</v>
       </c>
@@ -7087,7 +7085,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>167</v>
@@ -7107,7 +7105,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <v>38565</v>
       </c>
@@ -7131,7 +7129,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <v>38596</v>
       </c>
@@ -7157,7 +7155,7 @@
         <v>38625</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>169</v>
@@ -7177,7 +7175,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="48"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
         <v>38626</v>
       </c>
@@ -7203,7 +7201,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40"/>
       <c r="B154" s="20" t="s">
         <v>171</v>
@@ -7223,7 +7221,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <v>38657</v>
       </c>
@@ -7247,7 +7245,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <v>38687</v>
       </c>
@@ -7271,7 +7269,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>173</v>
@@ -7291,7 +7289,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="47" t="s">
         <v>62</v>
       </c>
@@ -7309,7 +7307,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <v>38718</v>
       </c>
@@ -7333,7 +7331,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <v>38749</v>
       </c>
@@ -7357,7 +7355,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <v>38777</v>
       </c>
@@ -7381,7 +7379,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>177</v>
@@ -7401,7 +7399,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <v>38808</v>
       </c>
@@ -7425,7 +7423,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>93</v>
@@ -7445,7 +7443,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <v>38838</v>
       </c>
@@ -7469,7 +7467,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <v>38869</v>
       </c>
@@ -7493,7 +7491,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
         <v>38899</v>
       </c>
@@ -7517,7 +7515,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
         <v>38930</v>
       </c>
@@ -7543,7 +7541,7 @@
         <v>38933</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>102</v>
@@ -7565,7 +7563,7 @@
         <v>38958</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>184</v>
@@ -7585,7 +7583,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <v>38961</v>
       </c>
@@ -7611,7 +7609,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>185</v>
@@ -7631,7 +7629,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
         <v>38991</v>
       </c>
@@ -7653,7 +7651,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>187</v>
@@ -7673,7 +7671,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
         <v>39022</v>
       </c>
@@ -7697,7 +7695,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <v>39052</v>
       </c>
@@ -7723,7 +7721,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>190</v>
@@ -7743,7 +7741,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="47" t="s">
         <v>63</v>
       </c>
@@ -7761,7 +7759,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <v>39083</v>
       </c>
@@ -7785,7 +7783,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <v>39114</v>
       </c>
@@ -7811,7 +7809,7 @@
         <v>39121</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>193</v>
@@ -7831,7 +7829,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
         <v>39142</v>
       </c>
@@ -7855,7 +7853,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <v>39173</v>
       </c>
@@ -7881,7 +7879,7 @@
         <v>39175</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>195</v>
@@ -7901,7 +7899,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
         <v>39203</v>
       </c>
@@ -7927,7 +7925,7 @@
         <v>39212</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>102</v>
@@ -7949,7 +7947,7 @@
         <v>39219</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>93</v>
@@ -7969,7 +7967,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>102</v>
@@ -7991,7 +7989,7 @@
         <v>39227</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>197</v>
@@ -8011,7 +8009,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="48"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <v>39234</v>
       </c>
@@ -8035,7 +8033,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
         <v>39264</v>
       </c>
@@ -8059,7 +8057,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
         <v>39295</v>
       </c>
@@ -8083,7 +8081,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <v>39326</v>
       </c>
@@ -8109,7 +8107,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>200</v>
@@ -8129,7 +8127,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <v>39356</v>
       </c>
@@ -8155,7 +8153,7 @@
         <v>39379</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>202</v>
@@ -8175,7 +8173,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <v>39387</v>
       </c>
@@ -8199,7 +8197,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
         <v>39417</v>
       </c>
@@ -8225,7 +8223,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>140</v>
@@ -8247,7 +8245,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40"/>
       <c r="B200" s="20" t="s">
         <v>107</v>
@@ -8267,7 +8265,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>206</v>
@@ -8287,7 +8285,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="47" t="s">
         <v>64</v>
       </c>
@@ -8305,7 +8303,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
         <v>39448</v>
       </c>
@@ -8329,7 +8327,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
         <v>39479</v>
       </c>
@@ -8353,7 +8351,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
         <v>39508</v>
       </c>
@@ -8375,7 +8373,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>209</v>
@@ -8395,7 +8393,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <v>39539</v>
       </c>
@@ -8421,7 +8419,7 @@
         <v>39563</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>210</v>
@@ -8441,7 +8439,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
         <v>39569</v>
       </c>
@@ -8465,7 +8463,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <v>39600</v>
       </c>
@@ -8489,7 +8487,7 @@
       <c r="J210" s="12"/>
       <c r="K210" s="15"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <v>39630</v>
       </c>
@@ -8513,7 +8511,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40">
         <v>39661</v>
       </c>
@@ -8539,7 +8537,7 @@
         <v>39665</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>214</v>
@@ -8559,7 +8557,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <v>39692</v>
       </c>
@@ -8583,7 +8581,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
         <v>39722</v>
       </c>
@@ -8609,7 +8607,7 @@
         <v>39745</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>216</v>
@@ -8629,7 +8627,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="48"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <v>39753</v>
       </c>
@@ -8655,7 +8653,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>219</v>
@@ -8675,7 +8673,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
         <v>39783</v>
       </c>
@@ -8699,7 +8697,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40"/>
       <c r="B220" s="20" t="s">
         <v>88</v>
@@ -8719,7 +8717,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="47" t="s">
         <v>65</v>
       </c>
@@ -8737,7 +8735,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
         <v>39814</v>
       </c>
@@ -8761,7 +8759,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
         <v>39845</v>
       </c>
@@ -8785,7 +8783,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <v>39873</v>
       </c>
@@ -8809,7 +8807,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>93</v>
@@ -8829,7 +8827,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>221</v>
@@ -8849,7 +8847,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
         <v>39904</v>
       </c>
@@ -8869,7 +8867,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <v>39934</v>
       </c>
@@ -8893,7 +8891,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
         <v>39965</v>
       </c>
@@ -8913,7 +8911,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <v>39995</v>
       </c>
@@ -8933,7 +8931,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
         <v>40026</v>
       </c>
@@ -8953,7 +8951,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40">
         <v>40057</v>
       </c>
@@ -8973,7 +8971,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <v>40087</v>
       </c>
@@ -8993,7 +8991,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40">
         <v>40118</v>
       </c>
@@ -9013,7 +9011,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
         <v>40148</v>
       </c>
@@ -9039,7 +9037,7 @@
         <v>40171</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>217</v>
@@ -9059,7 +9057,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="48"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="47" t="s">
         <v>66</v>
       </c>
@@ -9077,7 +9075,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40">
         <v>40179</v>
       </c>
@@ -9097,7 +9095,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40">
         <v>40210</v>
       </c>
@@ -9117,7 +9115,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <v>40238</v>
       </c>
@@ -9137,7 +9135,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40">
         <v>40269</v>
       </c>
@@ -9157,7 +9155,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
         <v>40299</v>
       </c>
@@ -9177,7 +9175,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <v>40330</v>
       </c>
@@ -9197,7 +9195,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40">
         <v>40360</v>
       </c>
@@ -9217,7 +9215,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <v>40391</v>
       </c>
@@ -9237,7 +9235,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40">
         <v>40422</v>
       </c>
@@ -9261,7 +9259,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40">
         <v>40452</v>
       </c>
@@ -9287,7 +9285,7 @@
         <v>40455</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>224</v>
@@ -9307,7 +9305,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40">
         <v>40483</v>
       </c>
@@ -9331,7 +9329,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
         <v>40513</v>
       </c>
@@ -9355,7 +9353,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="47" t="s">
         <v>67</v>
       </c>
@@ -9373,7 +9371,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
         <v>40544</v>
       </c>
@@ -9399,7 +9397,7 @@
         <v>40581</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>213</v>
@@ -9419,7 +9417,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <v>40575</v>
       </c>
@@ -9445,7 +9443,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>102</v>
@@ -9467,7 +9465,7 @@
         <v>40596</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>229</v>
@@ -9487,7 +9485,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="48"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40">
         <v>40603</v>
       </c>
@@ -9513,7 +9511,7 @@
         <v>40609</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>54</v>
@@ -9535,7 +9533,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>102</v>
@@ -9557,7 +9555,7 @@
         <v>40623</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>93</v>
@@ -9577,7 +9575,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>93</v>
@@ -9597,7 +9595,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>234</v>
@@ -9617,7 +9615,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40">
         <v>40634</v>
       </c>
@@ -9641,7 +9639,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <v>40664</v>
       </c>
@@ -9665,7 +9663,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40">
         <v>40695</v>
       </c>
@@ -9689,7 +9687,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
         <v>40725</v>
       </c>
@@ -9715,7 +9713,7 @@
         <v>40725</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>236</v>
@@ -9735,7 +9733,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40">
         <v>40756</v>
       </c>
@@ -9759,7 +9757,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40">
         <v>40787</v>
       </c>
@@ -9783,7 +9781,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40">
         <v>40817</v>
       </c>
@@ -9809,7 +9807,7 @@
         <v>40840</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>239</v>
@@ -9829,7 +9827,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="48"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <v>40848</v>
       </c>
@@ -9853,7 +9851,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40">
         <v>40878</v>
       </c>
@@ -9879,7 +9877,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>241</v>
@@ -9899,7 +9897,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="47" t="s">
         <v>68</v>
       </c>
@@ -9917,7 +9915,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40">
         <v>40909</v>
       </c>
@@ -9943,7 +9941,7 @@
         <v>40939</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>243</v>
@@ -9963,7 +9961,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40">
         <v>40940</v>
       </c>
@@ -9983,7 +9981,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40">
         <v>40969</v>
       </c>
@@ -10007,7 +10005,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
         <v>41000</v>
       </c>
@@ -10027,7 +10025,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40">
         <v>41030</v>
       </c>
@@ -10053,7 +10051,7 @@
         <v>41060</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
         <v>41061</v>
       </c>
@@ -10073,7 +10071,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
         <v>41091</v>
       </c>
@@ -10099,7 +10097,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40">
         <v>41122</v>
       </c>
@@ -10119,7 +10117,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40">
         <v>41153</v>
       </c>
@@ -10139,7 +10137,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <v>41183</v>
       </c>
@@ -10165,7 +10163,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>93</v>
@@ -10185,7 +10183,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
         <v>41214</v>
       </c>
@@ -10211,7 +10209,7 @@
         <v>41257</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
         <v>41244</v>
       </c>
@@ -10231,7 +10229,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="47" t="s">
         <v>69</v>
       </c>
@@ -10249,7 +10247,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40">
         <v>41275</v>
       </c>
@@ -10273,7 +10271,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <v>41306</v>
       </c>
@@ -10293,7 +10291,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40">
         <v>41334</v>
       </c>
@@ -10313,7 +10311,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
         <v>41365</v>
       </c>
@@ -10337,7 +10335,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40">
         <v>41395</v>
       </c>
@@ -10361,7 +10359,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40">
         <v>41426</v>
       </c>
@@ -10385,7 +10383,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40">
         <v>41456</v>
       </c>
@@ -10409,7 +10407,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40">
         <v>41487</v>
       </c>
@@ -10433,7 +10431,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40">
         <v>41518</v>
       </c>
@@ -10457,7 +10455,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
         <v>41548</v>
       </c>
@@ -10485,7 +10483,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>254</v>
@@ -10505,7 +10503,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40">
         <v>41579</v>
       </c>
@@ -10529,7 +10527,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
         <v>41609</v>
       </c>
@@ -10553,7 +10551,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>256</v>
@@ -10573,7 +10571,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="47" t="s">
         <v>70</v>
       </c>
@@ -10591,7 +10589,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40">
         <v>41640</v>
       </c>
@@ -10615,7 +10613,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
         <v>41671</v>
       </c>
@@ -10639,7 +10637,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40">
         <v>41699</v>
       </c>
@@ -10663,7 +10661,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40">
         <v>41730</v>
       </c>
@@ -10687,7 +10685,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
         <v>41760</v>
       </c>
@@ -10711,7 +10709,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <v>41791</v>
       </c>
@@ -10735,7 +10733,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
         <v>41821</v>
       </c>
@@ -10761,7 +10759,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>265</v>
@@ -10781,7 +10779,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40">
         <v>41852</v>
       </c>
@@ -10805,7 +10803,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40">
         <v>41883</v>
       </c>
@@ -10829,7 +10827,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40">
         <v>41913</v>
       </c>
@@ -10853,7 +10851,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>93</v>
@@ -10873,7 +10871,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40"/>
       <c r="B318" s="20" t="s">
         <v>268</v>
@@ -10893,7 +10891,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40">
         <v>41944</v>
       </c>
@@ -10919,7 +10917,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>272</v>
@@ -10939,7 +10937,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40">
         <v>41974</v>
       </c>
@@ -10963,7 +10961,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40"/>
       <c r="B322" s="20" t="s">
         <v>273</v>
@@ -10983,7 +10981,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="47" t="s">
         <v>71</v>
       </c>
@@ -11001,7 +10999,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40">
         <v>42005</v>
       </c>
@@ -11025,7 +11023,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <v>42036</v>
       </c>
@@ -11049,7 +11047,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40">
         <v>42064</v>
       </c>
@@ -11073,7 +11071,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>54</v>
@@ -11095,7 +11093,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>102</v>
@@ -11117,7 +11115,7 @@
         <v>42074</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>276</v>
@@ -11137,7 +11135,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40">
         <v>42095</v>
       </c>
@@ -11161,7 +11159,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>280</v>
@@ -11181,7 +11179,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40">
         <v>42125</v>
       </c>
@@ -11205,7 +11203,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
         <v>42156</v>
       </c>
@@ -11229,7 +11227,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
         <v>42186</v>
       </c>
@@ -11253,7 +11251,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <v>42217</v>
       </c>
@@ -11277,7 +11275,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40">
         <v>42248</v>
       </c>
@@ -11301,7 +11299,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40">
         <v>42278</v>
       </c>
@@ -11327,7 +11325,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>93</v>
@@ -11347,7 +11345,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>288</v>
@@ -11367,7 +11365,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40">
         <v>42309</v>
       </c>
@@ -11391,7 +11389,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <v>42339</v>
       </c>
@@ -11415,7 +11413,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>290</v>
@@ -11435,7 +11433,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="47" t="s">
         <v>72</v>
       </c>
@@ -11453,7 +11451,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40">
         <v>42370</v>
       </c>
@@ -11477,7 +11475,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
         <v>42401</v>
       </c>
@@ -11501,7 +11499,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40">
         <v>42430</v>
       </c>
@@ -11525,7 +11523,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
         <v>42461</v>
       </c>
@@ -11551,7 +11549,7 @@
         <v>42487</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>93</v>
@@ -11571,7 +11569,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>293</v>
@@ -11591,7 +11589,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="48"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40">
         <v>42491</v>
       </c>
@@ -11615,7 +11613,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <v>42522</v>
       </c>
@@ -11641,7 +11639,7 @@
         <v>42565</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>295</v>
@@ -11661,7 +11659,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40">
         <v>42552</v>
       </c>
@@ -11685,7 +11683,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <v>42583</v>
       </c>
@@ -11709,7 +11707,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
         <v>42614</v>
       </c>
@@ -11731,7 +11729,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>297</v>
@@ -11751,7 +11749,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40">
         <v>42644</v>
       </c>
@@ -11777,7 +11775,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>298</v>
@@ -11797,7 +11795,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40">
         <v>42675</v>
       </c>
@@ -11821,7 +11819,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40">
         <v>42705</v>
       </c>
@@ -11847,7 +11845,7 @@
         <v>42726</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>156</v>
@@ -11867,7 +11865,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="48"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>296</v>
@@ -11887,7 +11885,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="48"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="47" t="s">
         <v>73</v>
       </c>
@@ -11905,7 +11903,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40">
         <v>42736</v>
       </c>
@@ -11929,7 +11927,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40">
         <v>42767</v>
       </c>
@@ -11953,7 +11951,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
         <v>42795</v>
       </c>
@@ -11977,7 +11975,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40">
         <v>42826</v>
       </c>
@@ -11999,7 +11997,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>302</v>
@@ -12019,7 +12017,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40">
         <v>42856</v>
       </c>
@@ -12043,7 +12041,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
         <v>42887</v>
       </c>
@@ -12063,7 +12061,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40">
         <v>42917</v>
       </c>
@@ -12089,7 +12087,7 @@
         <v>42936</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>108</v>
@@ -12109,7 +12107,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="48"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40">
         <v>42948</v>
       </c>
@@ -12133,7 +12131,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
         <v>42979</v>
       </c>
@@ -12157,7 +12155,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
         <v>43009</v>
       </c>
@@ -12183,7 +12181,7 @@
         <v>43032</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40">
         <v>43040</v>
       </c>
@@ -12209,7 +12207,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40">
         <v>43070</v>
       </c>
@@ -12233,7 +12231,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="47" t="s">
         <v>74</v>
       </c>
@@ -12251,7 +12249,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40">
         <v>43101</v>
       </c>
@@ -12271,7 +12269,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40">
         <v>43132</v>
       </c>
@@ -12297,7 +12295,7 @@
         <v>42793</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>102</v>
@@ -12319,7 +12317,7 @@
         <v>42799</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40">
         <v>43160</v>
       </c>
@@ -12339,7 +12337,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
         <v>43191</v>
       </c>
@@ -12359,7 +12357,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40">
         <v>43221</v>
       </c>
@@ -12379,7 +12377,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40">
         <v>43252</v>
       </c>
@@ -12399,7 +12397,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40">
         <v>43282</v>
       </c>
@@ -12419,7 +12417,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40">
         <v>43313</v>
       </c>
@@ -12445,7 +12443,7 @@
         <v>43313</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40">
         <v>43344</v>
       </c>
@@ -12465,7 +12463,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40">
         <v>43374</v>
       </c>
@@ -12491,7 +12489,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>93</v>
@@ -12511,7 +12509,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40">
         <v>43405</v>
       </c>
@@ -12537,7 +12535,7 @@
         <v>43420</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40">
         <v>43435</v>
       </c>
@@ -12561,7 +12559,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="47" t="s">
         <v>75</v>
       </c>
@@ -12579,7 +12577,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40">
         <v>43466</v>
       </c>
@@ -12599,7 +12597,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
         <v>43497</v>
       </c>
@@ -12623,7 +12621,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40"/>
       <c r="B396" s="20" t="s">
         <v>227</v>
@@ -12645,7 +12643,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
         <v>43525</v>
       </c>
@@ -12665,7 +12663,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40">
         <v>43556</v>
       </c>
@@ -12689,7 +12687,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>102</v>
@@ -12711,7 +12709,7 @@
         <v>43570</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40">
         <v>43586</v>
       </c>
@@ -12731,7 +12729,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40">
         <v>43617</v>
       </c>
@@ -12755,7 +12753,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
         <v>43647</v>
       </c>
@@ -12775,7 +12773,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40">
         <v>43678</v>
       </c>
@@ -12795,7 +12793,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40">
         <v>43709</v>
       </c>
@@ -12815,7 +12813,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40">
         <v>43739</v>
       </c>
@@ -12841,7 +12839,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40">
         <v>43770</v>
       </c>
@@ -12867,7 +12865,7 @@
         <v>43791</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40">
         <v>43800</v>
       </c>
@@ -12893,7 +12891,7 @@
         <v>43822</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="47" t="s">
         <v>76</v>
       </c>
@@ -12911,7 +12909,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40">
         <v>43831</v>
       </c>
@@ -12935,7 +12933,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40">
         <v>43862</v>
       </c>
@@ -12961,7 +12959,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40">
         <v>43891</v>
       </c>
@@ -12981,7 +12979,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40">
         <v>43922</v>
       </c>
@@ -13001,7 +12999,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40">
         <v>43952</v>
       </c>
@@ -13021,7 +13019,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40">
         <v>43983</v>
       </c>
@@ -13041,7 +13039,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40">
         <v>44013</v>
       </c>
@@ -13061,7 +13059,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40">
         <v>44044</v>
       </c>
@@ -13087,7 +13085,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
         <v>54</v>
@@ -13109,7 +13107,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40">
         <v>44075</v>
       </c>
@@ -13129,7 +13127,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40">
         <v>44105</v>
       </c>
@@ -13149,7 +13147,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40">
         <v>44136</v>
       </c>
@@ -13169,7 +13167,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
         <v>44166</v>
       </c>
@@ -13195,7 +13193,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="47" t="s">
         <v>77</v>
       </c>
@@ -13213,7 +13211,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40">
         <v>44197</v>
       </c>
@@ -13233,7 +13231,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40">
         <v>44228</v>
       </c>
@@ -13253,7 +13251,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40">
         <v>44256</v>
       </c>
@@ -13273,7 +13271,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40">
         <v>44287</v>
       </c>
@@ -13293,7 +13291,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40">
         <v>44317</v>
       </c>
@@ -13313,7 +13311,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40">
         <v>44348</v>
       </c>
@@ -13333,7 +13331,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40">
         <v>44378</v>
       </c>
@@ -13353,7 +13351,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40">
         <v>44409</v>
       </c>
@@ -13373,7 +13371,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40">
         <v>44440</v>
       </c>
@@ -13393,7 +13391,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40">
         <v>44470</v>
       </c>
@@ -13413,7 +13411,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40">
         <v>44501</v>
       </c>
@@ -13433,7 +13431,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40">
         <v>44531</v>
       </c>
@@ -13459,7 +13457,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="47" t="s">
         <v>78</v>
       </c>
@@ -13477,7 +13475,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40">
         <v>44562</v>
       </c>
@@ -13497,7 +13495,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40">
         <v>44593</v>
       </c>
@@ -13517,7 +13515,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40">
         <v>44621</v>
       </c>
@@ -13537,7 +13535,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40">
         <v>44652</v>
       </c>
@@ -13563,7 +13561,7 @@
         <v>44659</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>86</v>
@@ -13585,7 +13583,7 @@
         <v>44678</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40">
         <v>44682</v>
       </c>
@@ -13605,7 +13603,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40">
         <v>44713</v>
       </c>
@@ -13625,7 +13623,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40">
         <v>44743</v>
       </c>
@@ -13651,7 +13649,7 @@
         <v>44771</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <v>44774</v>
       </c>
@@ -13671,7 +13669,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40">
         <v>44805</v>
       </c>
@@ -13691,7 +13689,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40">
         <v>44835</v>
       </c>
@@ -13717,7 +13715,7 @@
         <v>44858</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>84</v>
@@ -13739,7 +13737,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>102</v>
@@ -13761,7 +13759,7 @@
         <v>44858</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40"/>
       <c r="B449" s="20" t="s">
         <v>84</v>
@@ -13783,7 +13781,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
         <v>44866</v>
       </c>
@@ -13809,7 +13807,7 @@
         <v>44867</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40"/>
       <c r="B451" s="20" t="s">
         <v>102</v>
@@ -13831,7 +13829,7 @@
         <v>44882</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40">
         <v>44896</v>
       </c>
@@ -13857,7 +13855,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40"/>
       <c r="B453" s="20" t="s">
         <v>102</v>
@@ -13877,7 +13875,7 @@
         <v>37597</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="47" t="s">
         <v>318</v>
       </c>
@@ -13895,9 +13893,9 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B455" s="20"/>
       <c r="C455" s="13">
@@ -13915,9 +13913,9 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40">
-        <v>44958</v>
+        <v>44985</v>
       </c>
       <c r="B456" s="20"/>
       <c r="C456" s="13">
@@ -13935,9 +13933,9 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
-        <v>44986</v>
+        <v>45016</v>
       </c>
       <c r="B457" s="20" t="s">
         <v>102</v>
@@ -13961,7 +13959,7 @@
         <v>45012</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40"/>
       <c r="B458" s="20" t="s">
         <v>93</v>
@@ -13981,9 +13979,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B459" s="20" t="s">
         <v>102</v>
@@ -14007,7 +14005,7 @@
         <v>45019</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40"/>
       <c r="B460" s="20" t="s">
         <v>102</v>
@@ -14029,9 +14027,9 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40">
-        <v>45047</v>
+        <v>45077</v>
       </c>
       <c r="B461" s="15" t="s">
         <v>93</v>
@@ -14053,7 +14051,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>102</v>
@@ -14075,7 +14073,7 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40"/>
       <c r="B463" s="20" t="s">
         <v>102</v>
@@ -14097,24 +14095,36 @@
         <v>45075</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A464" s="40"/>
-      <c r="B464" s="20"/>
-      <c r="C464" s="13"/>
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A464" s="40">
+        <v>45107</v>
+      </c>
+      <c r="B464" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C464" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D464" s="39"/>
       <c r="E464" s="9"/>
       <c r="F464" s="20"/>
-      <c r="G464" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H464" s="39"/>
+      <c r="G464" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H464" s="39">
+        <v>1</v>
+      </c>
       <c r="I464" s="9"/>
       <c r="J464" s="11"/>
-      <c r="K464" s="20"/>
-    </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A465" s="40"/>
+      <c r="K464" s="48">
+        <v>45104</v>
+      </c>
+    </row>
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A465" s="40">
+        <v>45138</v>
+      </c>
       <c r="B465" s="20"/>
       <c r="C465" s="13"/>
       <c r="D465" s="39"/>
@@ -14129,8 +14139,10 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A466" s="40"/>
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A466" s="40">
+        <v>45169</v>
+      </c>
       <c r="B466" s="20"/>
       <c r="C466" s="13"/>
       <c r="D466" s="39"/>
@@ -14145,8 +14157,10 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A467" s="40"/>
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A467" s="40">
+        <v>45199</v>
+      </c>
       <c r="B467" s="20"/>
       <c r="C467" s="13"/>
       <c r="D467" s="39"/>
@@ -14161,21 +14175,1265 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A468" s="51"/>
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A468" s="40">
+        <v>45230</v>
+      </c>
       <c r="B468" s="15"/>
       <c r="C468" s="41"/>
       <c r="D468" s="42"/>
-      <c r="E468" s="52"/>
+      <c r="E468" s="51"/>
       <c r="F468" s="15"/>
       <c r="G468" s="41" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H468" s="42"/>
-      <c r="I468" s="52"/>
+      <c r="I468" s="51"/>
       <c r="J468" s="12"/>
       <c r="K468" s="15"/>
+    </row>
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A469" s="40">
+        <v>45260</v>
+      </c>
+      <c r="B469" s="20"/>
+      <c r="C469" s="13"/>
+      <c r="D469" s="39"/>
+      <c r="E469" s="9"/>
+      <c r="F469" s="20"/>
+      <c r="G469" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H469" s="39"/>
+      <c r="I469" s="9"/>
+      <c r="J469" s="11"/>
+      <c r="K469" s="20"/>
+    </row>
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A470" s="40">
+        <v>45291</v>
+      </c>
+      <c r="B470" s="20"/>
+      <c r="C470" s="13"/>
+      <c r="D470" s="39"/>
+      <c r="E470" s="9"/>
+      <c r="F470" s="20"/>
+      <c r="G470" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H470" s="39"/>
+      <c r="I470" s="9"/>
+      <c r="J470" s="11"/>
+      <c r="K470" s="20"/>
+    </row>
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A471" s="40">
+        <v>45322</v>
+      </c>
+      <c r="B471" s="20"/>
+      <c r="C471" s="13"/>
+      <c r="D471" s="39"/>
+      <c r="E471" s="9"/>
+      <c r="F471" s="20"/>
+      <c r="G471" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H471" s="39"/>
+      <c r="I471" s="9"/>
+      <c r="J471" s="11"/>
+      <c r="K471" s="20"/>
+    </row>
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A472" s="40">
+        <v>45351</v>
+      </c>
+      <c r="B472" s="20"/>
+      <c r="C472" s="13"/>
+      <c r="D472" s="39"/>
+      <c r="E472" s="9"/>
+      <c r="F472" s="20"/>
+      <c r="G472" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H472" s="39"/>
+      <c r="I472" s="9"/>
+      <c r="J472" s="11"/>
+      <c r="K472" s="20"/>
+    </row>
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A473" s="40">
+        <v>45382</v>
+      </c>
+      <c r="B473" s="20"/>
+      <c r="C473" s="13"/>
+      <c r="D473" s="39"/>
+      <c r="E473" s="9"/>
+      <c r="F473" s="20"/>
+      <c r="G473" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H473" s="39"/>
+      <c r="I473" s="9"/>
+      <c r="J473" s="11"/>
+      <c r="K473" s="20"/>
+    </row>
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A474" s="40">
+        <v>45412</v>
+      </c>
+      <c r="B474" s="20"/>
+      <c r="C474" s="13"/>
+      <c r="D474" s="39"/>
+      <c r="E474" s="9"/>
+      <c r="F474" s="20"/>
+      <c r="G474" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H474" s="39"/>
+      <c r="I474" s="9"/>
+      <c r="J474" s="11"/>
+      <c r="K474" s="20"/>
+    </row>
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A475" s="40">
+        <v>45443</v>
+      </c>
+      <c r="B475" s="20"/>
+      <c r="C475" s="13"/>
+      <c r="D475" s="39"/>
+      <c r="E475" s="9"/>
+      <c r="F475" s="20"/>
+      <c r="G475" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H475" s="39"/>
+      <c r="I475" s="9"/>
+      <c r="J475" s="11"/>
+      <c r="K475" s="20"/>
+    </row>
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A476" s="40">
+        <v>45473</v>
+      </c>
+      <c r="B476" s="20"/>
+      <c r="C476" s="13"/>
+      <c r="D476" s="39"/>
+      <c r="E476" s="9"/>
+      <c r="F476" s="20"/>
+      <c r="G476" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H476" s="39"/>
+      <c r="I476" s="9"/>
+      <c r="J476" s="11"/>
+      <c r="K476" s="20"/>
+    </row>
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A477" s="40">
+        <v>45504</v>
+      </c>
+      <c r="B477" s="20"/>
+      <c r="C477" s="13"/>
+      <c r="D477" s="39"/>
+      <c r="E477" s="9"/>
+      <c r="F477" s="20"/>
+      <c r="G477" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H477" s="39"/>
+      <c r="I477" s="9"/>
+      <c r="J477" s="11"/>
+      <c r="K477" s="20"/>
+    </row>
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A478" s="40">
+        <v>45535</v>
+      </c>
+      <c r="B478" s="20"/>
+      <c r="C478" s="13"/>
+      <c r="D478" s="39"/>
+      <c r="E478" s="9"/>
+      <c r="F478" s="20"/>
+      <c r="G478" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H478" s="39"/>
+      <c r="I478" s="9"/>
+      <c r="J478" s="11"/>
+      <c r="K478" s="20"/>
+    </row>
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A479" s="40">
+        <v>45565</v>
+      </c>
+      <c r="B479" s="20"/>
+      <c r="C479" s="13"/>
+      <c r="D479" s="39"/>
+      <c r="E479" s="9"/>
+      <c r="F479" s="20"/>
+      <c r="G479" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H479" s="39"/>
+      <c r="I479" s="9"/>
+      <c r="J479" s="11"/>
+      <c r="K479" s="20"/>
+    </row>
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A480" s="40">
+        <v>45596</v>
+      </c>
+      <c r="B480" s="20"/>
+      <c r="C480" s="13"/>
+      <c r="D480" s="39"/>
+      <c r="E480" s="9"/>
+      <c r="F480" s="20"/>
+      <c r="G480" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H480" s="39"/>
+      <c r="I480" s="9"/>
+      <c r="J480" s="11"/>
+      <c r="K480" s="20"/>
+    </row>
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A481" s="40">
+        <v>45626</v>
+      </c>
+      <c r="B481" s="20"/>
+      <c r="C481" s="13"/>
+      <c r="D481" s="39"/>
+      <c r="E481" s="9"/>
+      <c r="F481" s="20"/>
+      <c r="G481" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H481" s="39"/>
+      <c r="I481" s="9"/>
+      <c r="J481" s="11"/>
+      <c r="K481" s="20"/>
+    </row>
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A482" s="40">
+        <v>45657</v>
+      </c>
+      <c r="B482" s="20"/>
+      <c r="C482" s="13"/>
+      <c r="D482" s="39"/>
+      <c r="E482" s="9"/>
+      <c r="F482" s="20"/>
+      <c r="G482" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H482" s="39"/>
+      <c r="I482" s="9"/>
+      <c r="J482" s="11"/>
+      <c r="K482" s="20"/>
+    </row>
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A483" s="40">
+        <v>45688</v>
+      </c>
+      <c r="B483" s="20"/>
+      <c r="C483" s="13"/>
+      <c r="D483" s="39"/>
+      <c r="E483" s="9"/>
+      <c r="F483" s="20"/>
+      <c r="G483" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H483" s="39"/>
+      <c r="I483" s="9"/>
+      <c r="J483" s="11"/>
+      <c r="K483" s="20"/>
+    </row>
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A484" s="40">
+        <v>45716</v>
+      </c>
+      <c r="B484" s="20"/>
+      <c r="C484" s="13"/>
+      <c r="D484" s="39"/>
+      <c r="E484" s="9"/>
+      <c r="F484" s="20"/>
+      <c r="G484" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H484" s="39"/>
+      <c r="I484" s="9"/>
+      <c r="J484" s="11"/>
+      <c r="K484" s="20"/>
+    </row>
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A485" s="40">
+        <v>45747</v>
+      </c>
+      <c r="B485" s="20"/>
+      <c r="C485" s="13"/>
+      <c r="D485" s="39"/>
+      <c r="E485" s="9"/>
+      <c r="F485" s="20"/>
+      <c r="G485" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H485" s="39"/>
+      <c r="I485" s="9"/>
+      <c r="J485" s="11"/>
+      <c r="K485" s="20"/>
+    </row>
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A486" s="40">
+        <v>45777</v>
+      </c>
+      <c r="B486" s="20"/>
+      <c r="C486" s="13"/>
+      <c r="D486" s="39"/>
+      <c r="E486" s="9"/>
+      <c r="F486" s="20"/>
+      <c r="G486" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H486" s="39"/>
+      <c r="I486" s="9"/>
+      <c r="J486" s="11"/>
+      <c r="K486" s="20"/>
+    </row>
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A487" s="40">
+        <v>45808</v>
+      </c>
+      <c r="B487" s="20"/>
+      <c r="C487" s="13"/>
+      <c r="D487" s="39"/>
+      <c r="E487" s="9"/>
+      <c r="F487" s="20"/>
+      <c r="G487" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H487" s="39"/>
+      <c r="I487" s="9"/>
+      <c r="J487" s="11"/>
+      <c r="K487" s="20"/>
+    </row>
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A488" s="40">
+        <v>45838</v>
+      </c>
+      <c r="B488" s="20"/>
+      <c r="C488" s="13"/>
+      <c r="D488" s="39"/>
+      <c r="E488" s="9"/>
+      <c r="F488" s="20"/>
+      <c r="G488" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H488" s="39"/>
+      <c r="I488" s="9"/>
+      <c r="J488" s="11"/>
+      <c r="K488" s="20"/>
+    </row>
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A489" s="40">
+        <v>45869</v>
+      </c>
+      <c r="B489" s="20"/>
+      <c r="C489" s="13"/>
+      <c r="D489" s="39"/>
+      <c r="E489" s="9"/>
+      <c r="F489" s="20"/>
+      <c r="G489" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H489" s="39"/>
+      <c r="I489" s="9"/>
+      <c r="J489" s="11"/>
+      <c r="K489" s="20"/>
+    </row>
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A490" s="40">
+        <v>45900</v>
+      </c>
+      <c r="B490" s="20"/>
+      <c r="C490" s="13"/>
+      <c r="D490" s="39"/>
+      <c r="E490" s="9"/>
+      <c r="F490" s="20"/>
+      <c r="G490" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H490" s="39"/>
+      <c r="I490" s="9"/>
+      <c r="J490" s="11"/>
+      <c r="K490" s="20"/>
+    </row>
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A491" s="40">
+        <v>45930</v>
+      </c>
+      <c r="B491" s="20"/>
+      <c r="C491" s="13"/>
+      <c r="D491" s="39"/>
+      <c r="E491" s="9"/>
+      <c r="F491" s="20"/>
+      <c r="G491" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H491" s="39"/>
+      <c r="I491" s="9"/>
+      <c r="J491" s="11"/>
+      <c r="K491" s="20"/>
+    </row>
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A492" s="40">
+        <v>45961</v>
+      </c>
+      <c r="B492" s="20"/>
+      <c r="C492" s="13"/>
+      <c r="D492" s="39"/>
+      <c r="E492" s="9"/>
+      <c r="F492" s="20"/>
+      <c r="G492" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H492" s="39"/>
+      <c r="I492" s="9"/>
+      <c r="J492" s="11"/>
+      <c r="K492" s="20"/>
+    </row>
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A493" s="40">
+        <v>45991</v>
+      </c>
+      <c r="B493" s="20"/>
+      <c r="C493" s="13"/>
+      <c r="D493" s="39"/>
+      <c r="E493" s="9"/>
+      <c r="F493" s="20"/>
+      <c r="G493" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H493" s="39"/>
+      <c r="I493" s="9"/>
+      <c r="J493" s="11"/>
+      <c r="K493" s="20"/>
+    </row>
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A494" s="40">
+        <v>46022</v>
+      </c>
+      <c r="B494" s="20"/>
+      <c r="C494" s="13"/>
+      <c r="D494" s="39"/>
+      <c r="E494" s="9"/>
+      <c r="F494" s="20"/>
+      <c r="G494" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H494" s="39"/>
+      <c r="I494" s="9"/>
+      <c r="J494" s="11"/>
+      <c r="K494" s="20"/>
+    </row>
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A495" s="40">
+        <v>46053</v>
+      </c>
+      <c r="B495" s="20"/>
+      <c r="C495" s="13"/>
+      <c r="D495" s="39"/>
+      <c r="E495" s="9"/>
+      <c r="F495" s="20"/>
+      <c r="G495" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H495" s="39"/>
+      <c r="I495" s="9"/>
+      <c r="J495" s="11"/>
+      <c r="K495" s="20"/>
+    </row>
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A496" s="40">
+        <v>46081</v>
+      </c>
+      <c r="B496" s="20"/>
+      <c r="C496" s="13"/>
+      <c r="D496" s="39"/>
+      <c r="E496" s="9"/>
+      <c r="F496" s="20"/>
+      <c r="G496" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H496" s="39"/>
+      <c r="I496" s="9"/>
+      <c r="J496" s="11"/>
+      <c r="K496" s="20"/>
+    </row>
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A497" s="40">
+        <v>46112</v>
+      </c>
+      <c r="B497" s="20"/>
+      <c r="C497" s="13"/>
+      <c r="D497" s="39"/>
+      <c r="E497" s="9"/>
+      <c r="F497" s="20"/>
+      <c r="G497" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H497" s="39"/>
+      <c r="I497" s="9"/>
+      <c r="J497" s="11"/>
+      <c r="K497" s="20"/>
+    </row>
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A498" s="40">
+        <v>46142</v>
+      </c>
+      <c r="B498" s="20"/>
+      <c r="C498" s="13"/>
+      <c r="D498" s="39"/>
+      <c r="E498" s="9"/>
+      <c r="F498" s="20"/>
+      <c r="G498" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H498" s="39"/>
+      <c r="I498" s="9"/>
+      <c r="J498" s="11"/>
+      <c r="K498" s="20"/>
+    </row>
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A499" s="40">
+        <v>46173</v>
+      </c>
+      <c r="B499" s="20"/>
+      <c r="C499" s="13"/>
+      <c r="D499" s="39"/>
+      <c r="E499" s="9"/>
+      <c r="F499" s="20"/>
+      <c r="G499" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H499" s="39"/>
+      <c r="I499" s="9"/>
+      <c r="J499" s="11"/>
+      <c r="K499" s="20"/>
+    </row>
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A500" s="40">
+        <v>46203</v>
+      </c>
+      <c r="B500" s="20"/>
+      <c r="C500" s="13"/>
+      <c r="D500" s="39"/>
+      <c r="E500" s="9"/>
+      <c r="F500" s="20"/>
+      <c r="G500" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H500" s="39"/>
+      <c r="I500" s="9"/>
+      <c r="J500" s="11"/>
+      <c r="K500" s="20"/>
+    </row>
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A501" s="40">
+        <v>46234</v>
+      </c>
+      <c r="B501" s="20"/>
+      <c r="C501" s="13"/>
+      <c r="D501" s="39"/>
+      <c r="E501" s="9"/>
+      <c r="F501" s="20"/>
+      <c r="G501" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H501" s="39"/>
+      <c r="I501" s="9"/>
+      <c r="J501" s="11"/>
+      <c r="K501" s="20"/>
+    </row>
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A502" s="40">
+        <v>46265</v>
+      </c>
+      <c r="B502" s="20"/>
+      <c r="C502" s="13"/>
+      <c r="D502" s="39"/>
+      <c r="E502" s="9"/>
+      <c r="F502" s="20"/>
+      <c r="G502" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H502" s="39"/>
+      <c r="I502" s="9"/>
+      <c r="J502" s="11"/>
+      <c r="K502" s="20"/>
+    </row>
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A503" s="40">
+        <v>46295</v>
+      </c>
+      <c r="B503" s="20"/>
+      <c r="C503" s="13"/>
+      <c r="D503" s="39"/>
+      <c r="E503" s="9"/>
+      <c r="F503" s="20"/>
+      <c r="G503" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H503" s="39"/>
+      <c r="I503" s="9"/>
+      <c r="J503" s="11"/>
+      <c r="K503" s="20"/>
+    </row>
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A504" s="40">
+        <v>46326</v>
+      </c>
+      <c r="B504" s="20"/>
+      <c r="C504" s="13"/>
+      <c r="D504" s="39"/>
+      <c r="E504" s="9"/>
+      <c r="F504" s="20"/>
+      <c r="G504" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H504" s="39"/>
+      <c r="I504" s="9"/>
+      <c r="J504" s="11"/>
+      <c r="K504" s="20"/>
+    </row>
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A505" s="40">
+        <v>46356</v>
+      </c>
+      <c r="B505" s="20"/>
+      <c r="C505" s="13"/>
+      <c r="D505" s="39"/>
+      <c r="E505" s="9"/>
+      <c r="F505" s="20"/>
+      <c r="G505" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H505" s="39"/>
+      <c r="I505" s="9"/>
+      <c r="J505" s="11"/>
+      <c r="K505" s="20"/>
+    </row>
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A506" s="40">
+        <v>46387</v>
+      </c>
+      <c r="B506" s="20"/>
+      <c r="C506" s="13"/>
+      <c r="D506" s="39"/>
+      <c r="E506" s="9"/>
+      <c r="F506" s="20"/>
+      <c r="G506" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H506" s="39"/>
+      <c r="I506" s="9"/>
+      <c r="J506" s="11"/>
+      <c r="K506" s="20"/>
+    </row>
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A507" s="40">
+        <v>46418</v>
+      </c>
+      <c r="B507" s="20"/>
+      <c r="C507" s="13"/>
+      <c r="D507" s="39"/>
+      <c r="E507" s="9"/>
+      <c r="F507" s="20"/>
+      <c r="G507" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H507" s="39"/>
+      <c r="I507" s="9"/>
+      <c r="J507" s="11"/>
+      <c r="K507" s="20"/>
+    </row>
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A508" s="40">
+        <v>46446</v>
+      </c>
+      <c r="B508" s="20"/>
+      <c r="C508" s="13"/>
+      <c r="D508" s="39"/>
+      <c r="E508" s="9"/>
+      <c r="F508" s="20"/>
+      <c r="G508" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H508" s="39"/>
+      <c r="I508" s="9"/>
+      <c r="J508" s="11"/>
+      <c r="K508" s="20"/>
+    </row>
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A509" s="40">
+        <v>46477</v>
+      </c>
+      <c r="B509" s="20"/>
+      <c r="C509" s="13"/>
+      <c r="D509" s="39"/>
+      <c r="E509" s="9"/>
+      <c r="F509" s="20"/>
+      <c r="G509" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H509" s="39"/>
+      <c r="I509" s="9"/>
+      <c r="J509" s="11"/>
+      <c r="K509" s="20"/>
+    </row>
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A510" s="40">
+        <v>46507</v>
+      </c>
+      <c r="B510" s="20"/>
+      <c r="C510" s="13"/>
+      <c r="D510" s="39"/>
+      <c r="E510" s="9"/>
+      <c r="F510" s="20"/>
+      <c r="G510" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H510" s="39"/>
+      <c r="I510" s="9"/>
+      <c r="J510" s="11"/>
+      <c r="K510" s="20"/>
+    </row>
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A511" s="40">
+        <v>46538</v>
+      </c>
+      <c r="B511" s="20"/>
+      <c r="C511" s="13"/>
+      <c r="D511" s="39"/>
+      <c r="E511" s="9"/>
+      <c r="F511" s="20"/>
+      <c r="G511" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H511" s="39"/>
+      <c r="I511" s="9"/>
+      <c r="J511" s="11"/>
+      <c r="K511" s="20"/>
+    </row>
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A512" s="40">
+        <v>46568</v>
+      </c>
+      <c r="B512" s="20"/>
+      <c r="C512" s="13"/>
+      <c r="D512" s="39"/>
+      <c r="E512" s="9"/>
+      <c r="F512" s="20"/>
+      <c r="G512" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H512" s="39"/>
+      <c r="I512" s="9"/>
+      <c r="J512" s="11"/>
+      <c r="K512" s="20"/>
+    </row>
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A513" s="40">
+        <v>46599</v>
+      </c>
+      <c r="B513" s="20"/>
+      <c r="C513" s="13"/>
+      <c r="D513" s="39"/>
+      <c r="E513" s="9"/>
+      <c r="F513" s="20"/>
+      <c r="G513" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H513" s="39"/>
+      <c r="I513" s="9"/>
+      <c r="J513" s="11"/>
+      <c r="K513" s="20"/>
+    </row>
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A514" s="40">
+        <v>46630</v>
+      </c>
+      <c r="B514" s="20"/>
+      <c r="C514" s="13"/>
+      <c r="D514" s="39"/>
+      <c r="E514" s="9"/>
+      <c r="F514" s="20"/>
+      <c r="G514" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H514" s="39"/>
+      <c r="I514" s="9"/>
+      <c r="J514" s="11"/>
+      <c r="K514" s="20"/>
+    </row>
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A515" s="40">
+        <v>46660</v>
+      </c>
+      <c r="B515" s="20"/>
+      <c r="C515" s="13"/>
+      <c r="D515" s="39"/>
+      <c r="E515" s="9"/>
+      <c r="F515" s="20"/>
+      <c r="G515" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H515" s="39"/>
+      <c r="I515" s="9"/>
+      <c r="J515" s="11"/>
+      <c r="K515" s="20"/>
+    </row>
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A516" s="40">
+        <v>46691</v>
+      </c>
+      <c r="B516" s="20"/>
+      <c r="C516" s="13"/>
+      <c r="D516" s="39"/>
+      <c r="E516" s="9"/>
+      <c r="F516" s="20"/>
+      <c r="G516" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H516" s="39"/>
+      <c r="I516" s="9"/>
+      <c r="J516" s="11"/>
+      <c r="K516" s="20"/>
+    </row>
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A517" s="40">
+        <v>46721</v>
+      </c>
+      <c r="B517" s="20"/>
+      <c r="C517" s="13"/>
+      <c r="D517" s="39"/>
+      <c r="E517" s="9"/>
+      <c r="F517" s="20"/>
+      <c r="G517" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H517" s="39"/>
+      <c r="I517" s="9"/>
+      <c r="J517" s="11"/>
+      <c r="K517" s="20"/>
+    </row>
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A518" s="40">
+        <v>46752</v>
+      </c>
+      <c r="B518" s="20"/>
+      <c r="C518" s="13"/>
+      <c r="D518" s="39"/>
+      <c r="E518" s="9"/>
+      <c r="F518" s="20"/>
+      <c r="G518" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H518" s="39"/>
+      <c r="I518" s="9"/>
+      <c r="J518" s="11"/>
+      <c r="K518" s="20"/>
+    </row>
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A519" s="40">
+        <v>46783</v>
+      </c>
+      <c r="B519" s="20"/>
+      <c r="C519" s="13"/>
+      <c r="D519" s="39"/>
+      <c r="E519" s="9"/>
+      <c r="F519" s="20"/>
+      <c r="G519" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H519" s="39"/>
+      <c r="I519" s="9"/>
+      <c r="J519" s="11"/>
+      <c r="K519" s="20"/>
+    </row>
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A520" s="40">
+        <v>46812</v>
+      </c>
+      <c r="B520" s="20"/>
+      <c r="C520" s="13"/>
+      <c r="D520" s="39"/>
+      <c r="E520" s="9"/>
+      <c r="F520" s="20"/>
+      <c r="G520" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H520" s="39"/>
+      <c r="I520" s="9"/>
+      <c r="J520" s="11"/>
+      <c r="K520" s="20"/>
+    </row>
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A521" s="40">
+        <v>46843</v>
+      </c>
+      <c r="B521" s="20"/>
+      <c r="C521" s="13"/>
+      <c r="D521" s="39"/>
+      <c r="E521" s="9"/>
+      <c r="F521" s="20"/>
+      <c r="G521" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H521" s="39"/>
+      <c r="I521" s="9"/>
+      <c r="J521" s="11"/>
+      <c r="K521" s="20"/>
+    </row>
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A522" s="40">
+        <v>46873</v>
+      </c>
+      <c r="B522" s="20"/>
+      <c r="C522" s="13"/>
+      <c r="D522" s="39"/>
+      <c r="E522" s="9"/>
+      <c r="F522" s="20"/>
+      <c r="G522" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H522" s="39"/>
+      <c r="I522" s="9"/>
+      <c r="J522" s="11"/>
+      <c r="K522" s="20"/>
+    </row>
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A523" s="40">
+        <v>46904</v>
+      </c>
+      <c r="B523" s="20"/>
+      <c r="C523" s="13"/>
+      <c r="D523" s="39"/>
+      <c r="E523" s="9"/>
+      <c r="F523" s="20"/>
+      <c r="G523" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H523" s="39"/>
+      <c r="I523" s="9"/>
+      <c r="J523" s="11"/>
+      <c r="K523" s="20"/>
+    </row>
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A524" s="40">
+        <v>46934</v>
+      </c>
+      <c r="B524" s="20"/>
+      <c r="C524" s="13"/>
+      <c r="D524" s="39"/>
+      <c r="E524" s="9"/>
+      <c r="F524" s="20"/>
+      <c r="G524" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H524" s="39"/>
+      <c r="I524" s="9"/>
+      <c r="J524" s="11"/>
+      <c r="K524" s="20"/>
+    </row>
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A525" s="40">
+        <v>46965</v>
+      </c>
+      <c r="B525" s="20"/>
+      <c r="C525" s="13"/>
+      <c r="D525" s="39"/>
+      <c r="E525" s="9"/>
+      <c r="F525" s="20"/>
+      <c r="G525" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H525" s="39"/>
+      <c r="I525" s="9"/>
+      <c r="J525" s="11"/>
+      <c r="K525" s="20"/>
+    </row>
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A526" s="40">
+        <v>46996</v>
+      </c>
+      <c r="B526" s="20"/>
+      <c r="C526" s="13"/>
+      <c r="D526" s="39"/>
+      <c r="E526" s="9"/>
+      <c r="F526" s="20"/>
+      <c r="G526" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H526" s="39"/>
+      <c r="I526" s="9"/>
+      <c r="J526" s="11"/>
+      <c r="K526" s="20"/>
+    </row>
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A527" s="40">
+        <v>47026</v>
+      </c>
+      <c r="B527" s="20"/>
+      <c r="C527" s="13"/>
+      <c r="D527" s="39"/>
+      <c r="E527" s="9"/>
+      <c r="F527" s="20"/>
+      <c r="G527" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H527" s="39"/>
+      <c r="I527" s="9"/>
+      <c r="J527" s="11"/>
+      <c r="K527" s="20"/>
+    </row>
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A528" s="40">
+        <v>47057</v>
+      </c>
+      <c r="B528" s="20"/>
+      <c r="C528" s="13"/>
+      <c r="D528" s="39"/>
+      <c r="E528" s="9"/>
+      <c r="F528" s="20"/>
+      <c r="G528" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H528" s="39"/>
+      <c r="I528" s="9"/>
+      <c r="J528" s="11"/>
+      <c r="K528" s="20"/>
+    </row>
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A529" s="40">
+        <v>47087</v>
+      </c>
+      <c r="B529" s="20"/>
+      <c r="C529" s="13"/>
+      <c r="D529" s="39"/>
+      <c r="E529" s="9"/>
+      <c r="F529" s="20"/>
+      <c r="G529" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H529" s="39"/>
+      <c r="I529" s="9"/>
+      <c r="J529" s="11"/>
+      <c r="K529" s="20"/>
+    </row>
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A530" s="40">
+        <v>47118</v>
+      </c>
+      <c r="B530" s="20"/>
+      <c r="C530" s="13"/>
+      <c r="D530" s="39"/>
+      <c r="E530" s="9"/>
+      <c r="F530" s="20"/>
+      <c r="G530" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H530" s="39"/>
+      <c r="I530" s="9"/>
+      <c r="J530" s="11"/>
+      <c r="K530" s="20"/>
+    </row>
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A531" s="40">
+        <v>47149</v>
+      </c>
+      <c r="B531" s="20"/>
+      <c r="C531" s="13"/>
+      <c r="D531" s="39"/>
+      <c r="E531" s="9"/>
+      <c r="F531" s="20"/>
+      <c r="G531" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H531" s="39"/>
+      <c r="I531" s="9"/>
+      <c r="J531" s="11"/>
+      <c r="K531" s="20"/>
+    </row>
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A532" s="40">
+        <v>47177</v>
+      </c>
+      <c r="B532" s="20"/>
+      <c r="C532" s="13"/>
+      <c r="D532" s="39"/>
+      <c r="E532" s="9"/>
+      <c r="F532" s="20"/>
+      <c r="G532" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H532" s="39"/>
+      <c r="I532" s="9"/>
+      <c r="J532" s="11"/>
+      <c r="K532" s="20"/>
+    </row>
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A533" s="40">
+        <v>47208</v>
+      </c>
+      <c r="B533" s="20"/>
+      <c r="C533" s="13"/>
+      <c r="D533" s="39"/>
+      <c r="E533" s="9"/>
+      <c r="F533" s="20"/>
+      <c r="G533" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H533" s="39"/>
+      <c r="I533" s="9"/>
+      <c r="J533" s="11"/>
+      <c r="K533" s="20"/>
+    </row>
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A534" s="40">
+        <v>47238</v>
+      </c>
+      <c r="B534" s="20"/>
+      <c r="C534" s="13"/>
+      <c r="D534" s="39"/>
+      <c r="E534" s="9"/>
+      <c r="F534" s="20"/>
+      <c r="G534" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H534" s="39"/>
+      <c r="I534" s="9"/>
+      <c r="J534" s="11"/>
+      <c r="K534" s="20"/>
+    </row>
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A535" s="40">
+        <v>47269</v>
+      </c>
+      <c r="B535" s="20"/>
+      <c r="C535" s="13"/>
+      <c r="D535" s="39"/>
+      <c r="E535" s="9"/>
+      <c r="F535" s="20"/>
+      <c r="G535" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H535" s="39"/>
+      <c r="I535" s="9"/>
+      <c r="J535" s="11"/>
+      <c r="K535" s="20"/>
+    </row>
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A536" s="40">
+        <v>47299</v>
+      </c>
+      <c r="B536" s="20"/>
+      <c r="C536" s="13"/>
+      <c r="D536" s="39"/>
+      <c r="E536" s="9"/>
+      <c r="F536" s="20"/>
+      <c r="G536" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H536" s="39"/>
+      <c r="I536" s="9"/>
+      <c r="J536" s="11"/>
+      <c r="K536" s="20"/>
+    </row>
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A537" s="40">
+        <v>47330</v>
+      </c>
+      <c r="B537" s="20"/>
+      <c r="C537" s="13"/>
+      <c r="D537" s="39"/>
+      <c r="E537" s="9"/>
+      <c r="F537" s="20"/>
+      <c r="G537" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H537" s="39"/>
+      <c r="I537" s="9"/>
+      <c r="J537" s="11"/>
+      <c r="K537" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -14192,10 +15450,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14218,7 +15476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -14226,34 +15484,34 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="63" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="J1" s="64" t="s">
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="J1" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -14282,7 +15540,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>34</v>
       </c>
@@ -14308,17 +15566,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -14332,14 +15590,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="43"/>
-      <c r="I6" s="64" t="s">
+      <c r="I6" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -14366,7 +15624,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -14392,7 +15650,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -14418,7 +15676,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -14444,7 +15702,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -14470,7 +15728,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -14496,7 +15754,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -14522,7 +15780,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -14548,7 +15806,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -14568,7 +15826,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -14588,7 +15846,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -14608,7 +15866,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -14629,7 +15887,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -14650,7 +15908,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -14671,7 +15929,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -14692,7 +15950,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -14713,7 +15971,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -14734,7 +15992,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -14755,7 +16013,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -14776,7 +16034,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -14797,7 +16055,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -14818,7 +16076,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -14839,7 +16097,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -14860,7 +16118,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -14881,7 +16139,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -14902,7 +16160,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -14923,7 +16181,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -14944,7 +16202,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -14965,7 +16223,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -14986,7 +16244,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -15007,7 +16265,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -15028,7 +16286,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -15037,7 +16295,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -15046,7 +16304,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -15055,7 +16313,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -15064,7 +16322,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -15073,7 +16331,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -15082,7 +16340,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -15091,7 +16349,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -15100,7 +16358,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -15109,7 +16367,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -15118,7 +16376,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -15127,7 +16385,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -15136,7 +16394,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -15145,7 +16403,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -15154,7 +16412,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -15163,7 +16421,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -15172,7 +16430,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -15181,7 +16439,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -15190,7 +16448,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -15199,7 +16457,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -15208,7 +16466,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -15217,7 +16475,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -15226,7 +16484,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -15235,7 +16493,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -15244,7 +16502,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -15253,7 +16511,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -15262,7 +16520,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -15271,7 +16529,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -15280,7 +16538,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -15289,7 +16547,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
